--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_38.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_38.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2895314.872179465</v>
+        <v>3048958.28135834</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13236035.67526077</v>
+        <v>11843801.51954496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1763776.908577129</v>
+        <v>612367.9462114752</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4977051.180193833</v>
+        <v>5246190.696413623</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>231.8635478585618</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
         <v>0.2956717864458369</v>
@@ -707,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>82.77087525591661</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -826,7 +828,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
         <v>164.5944000087102</v>
@@ -835,7 +837,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,19 +867,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>140.552229168681</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>223.2133170830522</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,16 +898,16 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>205.6569777774022</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
         <v>400.2956717864458</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>98.65118146889989</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
         <v>170.2528374898731</v>
@@ -1069,7 +1071,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>42.18515664900163</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -1102,19 +1104,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0.3079544622801723</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1136,7 +1138,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
         <v>421.717170453621</v>
@@ -1145,13 +1147,13 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1186,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>178.5874170548077</v>
+        <v>353.7742984338904</v>
       </c>
       <c r="Y8" t="n">
         <v>1.283897344658556</v>
@@ -1291,25 +1293,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1345,19 +1347,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>92.32690224702685</v>
+        <v>169.983518543731</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1382,13 +1384,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>255.771360309553</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>245.6182799739659</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -1528,16 +1530,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>136.6601511077862</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
@@ -1546,7 +1548,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1591,7 +1593,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>70.99459090292609</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1604,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>422.6317226868337</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
@@ -1667,13 +1669,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>170.4703417262257</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1765,10 +1767,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
@@ -1780,10 +1782,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>187.5398895371116</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1831,7 +1833,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -1853,7 +1855,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924947</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
         <v>400.2956717864458</v>
@@ -1999,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
@@ -2017,7 +2019,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>30.42064798737231</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -2053,22 +2055,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>180.0196592840957</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2135,7 +2137,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
-        <v>255.7713603095518</v>
+        <v>255.771360309553</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
@@ -2287,7 +2289,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2296,13 +2298,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>107.547401993793</v>
+        <v>218.0080577057914</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>132.1023254287123</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2526,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>199.2359060328223</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2710,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
@@ -2767,10 +2769,10 @@
         <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>41.64823684846815</v>
+        <v>144.9327968781083</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -2965,10 +2967,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>123.9086344760398</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>216.5517457234298</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3187,7 +3189,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
@@ -3199,10 +3201,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>68.22238607350852</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
@@ -3247,13 +3249,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>201.4023888468918</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3286,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I35" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3421,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>118.7272244557248</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
         <v>164.5944000087102</v>
@@ -3469,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>228.0996351671496</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3569,7 +3571,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>401.2838973446598</v>
       </c>
     </row>
     <row r="39">
@@ -3658,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>97.601121629</v>
+        <v>124.3387367898102</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
@@ -3737,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>358.9794250489176</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
@@ -3758,7 +3760,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
         <v>218.7163152458132</v>
@@ -3803,7 +3805,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -3895,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>104.931683070052</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
@@ -3949,22 +3951,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>126.13891186112</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3979,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
@@ -3989,10 +3991,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>395.1802734520417</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407063</v>
       </c>
       <c r="I44" t="n">
         <v>34.5479025439635</v>
@@ -4028,7 +4030,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
         <v>255.7713603095518</v>
@@ -4037,10 +4039,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>144.7688769167488</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
@@ -4141,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>49.87597792716577</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4192,7 +4194,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
@@ -4201,7 +4203,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1334.464719255012</v>
+        <v>739.5193319569357</v>
       </c>
       <c r="C2" t="n">
-        <v>1311.604393308716</v>
+        <v>505.3137280593985</v>
       </c>
       <c r="D2" t="n">
-        <v>888.3117724937163</v>
+        <v>486.0615112848029</v>
       </c>
       <c r="E2" t="n">
-        <v>462.3348326415738</v>
+        <v>60.08457143266044</v>
       </c>
       <c r="F2" t="n">
-        <v>37.21065083097405</v>
+        <v>39.00079366246474</v>
       </c>
       <c r="G2" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="H2" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="I2" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J2" t="n">
-        <v>399.5154512777223</v>
+        <v>401.305594109213</v>
       </c>
       <c r="K2" t="n">
-        <v>856.3013579804531</v>
+        <v>880.2445183516411</v>
       </c>
       <c r="L2" t="n">
-        <v>1313.087264683184</v>
+        <v>880.2445183516411</v>
       </c>
       <c r="M2" t="n">
-        <v>1769.873171385915</v>
+        <v>880.2445183516411</v>
       </c>
       <c r="N2" t="n">
-        <v>1769.873171385915</v>
+        <v>1000.08236086926</v>
       </c>
       <c r="O2" t="n">
-        <v>1769.873171385915</v>
+        <v>1000.08236086926</v>
       </c>
       <c r="P2" t="n">
-        <v>1769.873171385915</v>
+        <v>1479.021285111688</v>
       </c>
       <c r="Q2" t="n">
-        <v>1769.873171385915</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="R2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S2" t="n">
-        <v>1845.599623041337</v>
+        <v>1830.739470489012</v>
       </c>
       <c r="T2" t="n">
-        <v>1845.599623041337</v>
+        <v>1830.739470489012</v>
       </c>
       <c r="U2" t="n">
-        <v>1845.599623041337</v>
+        <v>1572.384561085424</v>
       </c>
       <c r="V2" t="n">
-        <v>1845.599623041337</v>
+        <v>1572.384561085424</v>
       </c>
       <c r="W2" t="n">
-        <v>1845.599623041337</v>
+        <v>1572.384561085424</v>
       </c>
       <c r="X2" t="n">
-        <v>1837.920028249488</v>
+        <v>1160.664562253171</v>
       </c>
       <c r="Y2" t="n">
-        <v>1754.313083546542</v>
+        <v>755.3272922080617</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.0354834922822</v>
+        <v>605.8256263237727</v>
       </c>
       <c r="C3" t="n">
-        <v>486.529580009787</v>
+        <v>488.3197228412774</v>
       </c>
       <c r="D3" t="n">
-        <v>382.6896215250719</v>
+        <v>384.4797643565624</v>
       </c>
       <c r="E3" t="n">
-        <v>277.9876877980091</v>
+        <v>279.7778306294996</v>
       </c>
       <c r="F3" t="n">
-        <v>184.3418574809132</v>
+        <v>186.1320003124038</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851708</v>
+        <v>92.07822853000783</v>
       </c>
       <c r="H3" t="n">
-        <v>36.9119924608267</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="I3" t="n">
-        <v>36.9119924608267</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J3" t="n">
-        <v>36.9119924608267</v>
+        <v>310.3996245719085</v>
       </c>
       <c r="K3" t="n">
-        <v>36.9119924608267</v>
+        <v>789.3385488143367</v>
       </c>
       <c r="L3" t="n">
-        <v>36.9119924608267</v>
+        <v>789.3385488143367</v>
       </c>
       <c r="M3" t="n">
-        <v>493.6978991635576</v>
+        <v>904.3053647676197</v>
       </c>
       <c r="N3" t="n">
-        <v>950.4838058662884</v>
+        <v>1383.244289010048</v>
       </c>
       <c r="O3" t="n">
-        <v>1388.813716338606</v>
+        <v>1383.244289010048</v>
       </c>
       <c r="P3" t="n">
-        <v>1845.599623041337</v>
+        <v>1383.244289010048</v>
       </c>
       <c r="Q3" t="n">
-        <v>1845.599623041337</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="R3" t="n">
-        <v>1845.599623041337</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="S3" t="n">
-        <v>1764.275375602591</v>
+        <v>1766.065518434082</v>
       </c>
       <c r="T3" t="n">
-        <v>1622.39543990027</v>
+        <v>1624.18558273176</v>
       </c>
       <c r="U3" t="n">
-        <v>1437.627243819906</v>
+        <v>1439.417386651397</v>
       </c>
       <c r="V3" t="n">
-        <v>1232.654104959172</v>
+        <v>1234.444247790663</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.13272779239</v>
+        <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6553815590526</v>
+        <v>874.445524390543</v>
       </c>
       <c r="Y3" t="n">
-        <v>732.9624929123449</v>
+        <v>734.7526357438354</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>948.231340759624</v>
+        <v>1022.11468955683</v>
       </c>
       <c r="C4" t="n">
-        <v>776.25877763854</v>
+        <v>850.1421264357463</v>
       </c>
       <c r="D4" t="n">
-        <v>612.9420047653107</v>
+        <v>686.825353562517</v>
       </c>
       <c r="E4" t="n">
-        <v>446.7337989181643</v>
+        <v>520.6171477153705</v>
       </c>
       <c r="F4" t="n">
-        <v>446.7337989181643</v>
+        <v>348.7553734899309</v>
       </c>
       <c r="G4" t="n">
-        <v>280.4768292123964</v>
+        <v>182.498403784163</v>
       </c>
       <c r="H4" t="n">
-        <v>136.6805607205508</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="I4" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J4" t="n">
-        <v>36.91199246082674</v>
+        <v>96.19346351647545</v>
       </c>
       <c r="K4" t="n">
-        <v>263.4395936666639</v>
+        <v>322.7210647223126</v>
       </c>
       <c r="L4" t="n">
-        <v>618.1289149610848</v>
+        <v>677.4103860167334</v>
       </c>
       <c r="M4" t="n">
-        <v>1009.314709931336</v>
+        <v>1068.596180986984</v>
       </c>
       <c r="N4" t="n">
-        <v>1386.806220807371</v>
+        <v>1446.08769186302</v>
       </c>
       <c r="O4" t="n">
-        <v>1742.234349487134</v>
+        <v>1801.515820542783</v>
       </c>
       <c r="P4" t="n">
-        <v>1845.599623041337</v>
+        <v>1808.106634375109</v>
       </c>
       <c r="Q4" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="R4" t="n">
-        <v>1798.56100972851</v>
+        <v>1888.068151303045</v>
       </c>
       <c r="S4" t="n">
-        <v>1656.589061073277</v>
+        <v>1717.93310382218</v>
       </c>
       <c r="T4" t="n">
-        <v>1413.249713299177</v>
+        <v>1717.93310382218</v>
       </c>
       <c r="U4" t="n">
-        <v>1413.249713299177</v>
+        <v>1437.748655322484</v>
       </c>
       <c r="V4" t="n">
-        <v>1413.249713299177</v>
+        <v>1212.280658268896</v>
       </c>
       <c r="W4" t="n">
-        <v>1138.39730947169</v>
+        <v>1212.280658268896</v>
       </c>
       <c r="X4" t="n">
-        <v>1138.39730947169</v>
+        <v>1212.280658268896</v>
       </c>
       <c r="Y4" t="n">
-        <v>1138.39730947169</v>
+        <v>1212.280658268896</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1820.815201993657</v>
+        <v>1235.878926328994</v>
       </c>
       <c r="C5" t="n">
-        <v>1797.954876047361</v>
+        <v>808.9781963422939</v>
       </c>
       <c r="D5" t="n">
-        <v>1590.220555060086</v>
+        <v>789.7259795676982</v>
       </c>
       <c r="E5" t="n">
-        <v>1164.243615207943</v>
+        <v>767.7894437559598</v>
       </c>
       <c r="F5" t="n">
-        <v>739.1194333973433</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G5" t="n">
-        <v>334.7803709867919</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>399.5154512777223</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>399.5154512777223</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L5" t="n">
-        <v>399.5154512777223</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M5" t="n">
-        <v>399.5154512777223</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N5" t="n">
-        <v>814.4714747539724</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="O5" t="n">
-        <v>1271.257381456703</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P5" t="n">
-        <v>1728.043288159434</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q5" t="n">
-        <v>1728.043288159434</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>1845.599623041337</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>1845.599623041337</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U5" t="n">
-        <v>1845.599623041337</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V5" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.054543461766</v>
       </c>
       <c r="W5" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.054543461766</v>
       </c>
       <c r="X5" t="n">
-        <v>1837.920028249488</v>
+        <v>1351.334544629514</v>
       </c>
       <c r="Y5" t="n">
-        <v>1836.623162244782</v>
+        <v>1251.68688658012</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>604.035483492282</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>486.5295800097867</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250718</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>277.987687798009</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>184.3418574809131</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851715</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>36.91199246082674</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="K6" t="n">
-        <v>36.91199246082674</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="L6" t="n">
-        <v>493.6978991635576</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="M6" t="n">
-        <v>932.0278096358747</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="N6" t="n">
-        <v>932.0278096358747</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O6" t="n">
-        <v>1388.813716338606</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P6" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q6" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>1622.395439900269</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.132727792389</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>872.6553815590523</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>732.9624929123447</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>847.0463416102043</v>
+        <v>955.8175733480448</v>
       </c>
       <c r="C7" t="n">
-        <v>675.0737784891203</v>
+        <v>783.8450102269608</v>
       </c>
       <c r="D7" t="n">
-        <v>511.757005615891</v>
+        <v>620.5282373537315</v>
       </c>
       <c r="E7" t="n">
-        <v>345.5487997687445</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="F7" t="n">
-        <v>345.5487997687445</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
-        <v>179.2918300629767</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
-        <v>136.6805607205508</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>320.9309218908219</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>675.6202431852428</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>695.080641322875</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1072.572152198911</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1428.000280878674</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q7" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>1798.56100972851</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S7" t="n">
-        <v>1628.425962247645</v>
+        <v>2177.561574036135</v>
       </c>
       <c r="T7" t="n">
-        <v>1628.425962247645</v>
+        <v>1934.222226262035</v>
       </c>
       <c r="U7" t="n">
-        <v>1348.241513747949</v>
+        <v>1654.03777776234</v>
       </c>
       <c r="V7" t="n">
-        <v>1348.241513747949</v>
+        <v>1372.326310370368</v>
       </c>
       <c r="W7" t="n">
-        <v>1073.389109920462</v>
+        <v>1372.326310370368</v>
       </c>
       <c r="X7" t="n">
-        <v>1073.389109920462</v>
+        <v>1372.326310370368</v>
       </c>
       <c r="Y7" t="n">
-        <v>847.0463416102043</v>
+        <v>1145.98354206011</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>965.3211864711366</v>
+        <v>1746.091355883837</v>
       </c>
       <c r="C8" t="n">
-        <v>538.4204564844366</v>
+        <v>1319.190625897137</v>
       </c>
       <c r="D8" t="n">
-        <v>519.1682397098409</v>
+        <v>895.898005082137</v>
       </c>
       <c r="E8" t="n">
-        <v>93.19129985769854</v>
+        <v>469.9210652299946</v>
       </c>
       <c r="F8" t="n">
-        <v>72.10752208750284</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G8" t="n">
-        <v>71.80886371735554</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
-        <v>71.80886371735554</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>399.5154512777223</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>856.3013579804531</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L8" t="n">
-        <v>856.3013579804531</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M8" t="n">
-        <v>856.3013579804531</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N8" t="n">
-        <v>932.027809635875</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="O8" t="n">
-        <v>1388.813716338606</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="P8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>1741.232328914477</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>1520.30675795911</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U8" t="n">
-        <v>1520.30675795911</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V8" t="n">
-        <v>1162.81734308536</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="W8" t="n">
-        <v>1162.81734308536</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="X8" t="n">
-        <v>982.4260127269682</v>
+        <v>1763.196182139668</v>
       </c>
       <c r="Y8" t="n">
-        <v>981.1291467222626</v>
+        <v>1761.899316134962</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.035483492282</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>486.5295800097867</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250718</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>277.987687798009</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809131</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851715</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.35863542273858</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>44.35863542273858</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K9" t="n">
-        <v>44.35863542273858</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="L9" t="n">
-        <v>501.1445421254695</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="M9" t="n">
-        <v>501.1445421254695</v>
+        <v>119.1699405917395</v>
       </c>
       <c r="N9" t="n">
-        <v>957.9304488282003</v>
+        <v>669.8354755761777</v>
       </c>
       <c r="O9" t="n">
-        <v>1414.716355530931</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="P9" t="n">
-        <v>1763.580312956633</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q9" t="n">
-        <v>1763.580312956633</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.395439900269</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1036.132727792389</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>872.6553815590523</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.9624929123447</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>352.5700351781119</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C10" t="n">
-        <v>352.5700351781119</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D10" t="n">
-        <v>352.5700351781119</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>352.5700351781119</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
-        <v>180.7082609526723</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>180.7082609526723</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>36.91199246082674</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>36.91199246082674</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>76.20565529896515</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>430.8949765933859</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>822.0807715636367</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1199.572282439673</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1555.000411119436</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>1845.599623041337</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>1798.56100972851</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>1628.425962247645</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>1385.086614473545</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U10" t="n">
-        <v>1104.902165973849</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="V10" t="n">
-        <v>1011.64266875463</v>
+        <v>1592.697720113037</v>
       </c>
       <c r="W10" t="n">
-        <v>1011.64266875463</v>
+        <v>1317.84531628555</v>
       </c>
       <c r="X10" t="n">
-        <v>769.0787722004354</v>
+        <v>1317.84531628555</v>
       </c>
       <c r="Y10" t="n">
-        <v>542.7360038901775</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2071.647100753406</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C11" t="n">
-        <v>1644.746370766707</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
-        <v>1221.453749951707</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
-        <v>795.4768100995645</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>370.3526282889647</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>370.3526282889647</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H11" t="n">
-        <v>72.48424976299951</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>72.48424976299951</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K11" t="n">
-        <v>787.9925577384986</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>1684.985148555618</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>2581.977739372736</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N11" t="n">
-        <v>3478.970330189855</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O11" t="n">
-        <v>3478.970330189855</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P11" t="n">
-        <v>3478.970330189855</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q11" t="n">
-        <v>3506.656153268073</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R11" t="n">
-        <v>3624.212488149976</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S11" t="n">
-        <v>3624.212488149976</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T11" t="n">
-        <v>3403.286917194609</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U11" t="n">
-        <v>3144.932007791022</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>3144.932007791022</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W11" t="n">
-        <v>2896.832735090046</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X11" t="n">
-        <v>2896.832735090046</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y11" t="n">
-        <v>2491.495465044936</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>125.8603430006899</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J12" t="n">
-        <v>344.1817390425906</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K12" t="n">
-        <v>902.1599794416873</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L12" t="n">
-        <v>902.1599794416873</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M12" t="n">
-        <v>1799.152570258806</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N12" t="n">
-        <v>1799.152570258806</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O12" t="n">
-        <v>1799.152570258806</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P12" t="n">
-        <v>1799.152570258806</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q12" t="n">
-        <v>1799.152570258806</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R12" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>883.9242409064283</v>
+        <v>985.454412532011</v>
       </c>
       <c r="C13" t="n">
-        <v>883.9242409064283</v>
+        <v>813.481849410927</v>
       </c>
       <c r="D13" t="n">
-        <v>720.607468033199</v>
+        <v>650.1650765376977</v>
       </c>
       <c r="E13" t="n">
-        <v>554.3992621860525</v>
+        <v>650.1650765376977</v>
       </c>
       <c r="F13" t="n">
-        <v>382.537487960613</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G13" t="n">
-        <v>216.2805182548451</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H13" t="n">
-        <v>72.48424976299951</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I13" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K13" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L13" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2205.858663863301</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S13" t="n">
-        <v>2035.723616382436</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T13" t="n">
-        <v>1792.384268608336</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U13" t="n">
-        <v>1512.19982010864</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V13" t="n">
-        <v>1230.488352716669</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W13" t="n">
-        <v>955.6359488891819</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X13" t="n">
-        <v>883.9242409064283</v>
+        <v>985.454412532011</v>
       </c>
       <c r="Y13" t="n">
-        <v>883.9242409064283</v>
+        <v>985.454412532011</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2510.883034420487</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C14" t="n">
-        <v>2083.982304433787</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
-        <v>1660.689683618787</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
-        <v>1234.712743766645</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>809.5885619560448</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G14" t="n">
-        <v>405.2494995454934</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H14" t="n">
-        <v>107.3811210195283</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>435.087708579895</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>435.087708579895</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>1332.080299397014</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>2229.072890214133</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N14" t="n">
-        <v>3126.065481031252</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O14" t="n">
-        <v>3126.065481031252</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="P14" t="n">
-        <v>3506.656153268073</v>
+        <v>4798.855966881186</v>
       </c>
       <c r="Q14" t="n">
-        <v>3506.656153268073</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R14" t="n">
-        <v>3624.212488149976</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
-        <v>3519.845194023116</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T14" t="n">
-        <v>3298.919623067749</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U14" t="n">
-        <v>3040.564713664162</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>2683.075298790412</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W14" t="n">
-        <v>2683.075298790412</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X14" t="n">
-        <v>2510.883034420487</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
-        <v>2510.883034420487</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>125.8603430006899</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>79.93089272491135</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>79.93089272491135</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K15" t="n">
-        <v>94.69801151491879</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L15" t="n">
-        <v>94.69801151491879</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M15" t="n">
-        <v>94.69801151491879</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N15" t="n">
-        <v>991.6906023320378</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O15" t="n">
-        <v>1881.171880343509</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P15" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q15" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R15" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>576.8111995413534</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C16" t="n">
-        <v>576.8111995413534</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D16" t="n">
-        <v>576.8111995413534</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E16" t="n">
-        <v>410.6029936942069</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F16" t="n">
-        <v>238.7412194687674</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G16" t="n">
-        <v>72.48424976299951</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H16" t="n">
-        <v>72.48424976299951</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I16" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K16" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L16" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2205.858663863301</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>2035.723616382436</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T16" t="n">
-        <v>1846.289384526768</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U16" t="n">
-        <v>1566.104936027072</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V16" t="n">
-        <v>1284.393468635101</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W16" t="n">
-        <v>1009.541064807614</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X16" t="n">
-        <v>766.977168253419</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y16" t="n">
-        <v>766.977168253419</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="17">
@@ -5489,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
         <v>839.4070255988738</v>
@@ -5528,13 +5530,13 @@
         <v>4090.576687723259</v>
       </c>
       <c r="O17" t="n">
-        <v>4090.576687723259</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P17" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
@@ -5549,16 +5551,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5601,19 +5603,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>102.3027134058285</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="N18" t="n">
-        <v>1021.509065974867</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1185.483835930065</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="C19" t="n">
-        <v>1013.511272808982</v>
+        <v>570.9179528567321</v>
       </c>
       <c r="D19" t="n">
-        <v>850.1944999357522</v>
+        <v>570.9179528567321</v>
       </c>
       <c r="E19" t="n">
-        <v>683.9862940886057</v>
+        <v>570.9179528567321</v>
       </c>
       <c r="F19" t="n">
-        <v>512.1245198631661</v>
+        <v>399.0561786312925</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>232.7992089255246</v>
       </c>
       <c r="H19" t="n">
         <v>202.0712816655526</v>
@@ -5701,22 +5703,22 @@
         <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>2065.542080025265</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U19" t="n">
-        <v>2065.542080025265</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V19" t="n">
-        <v>1783.830612633294</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W19" t="n">
-        <v>1783.830612633294</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X19" t="n">
-        <v>1601.992572952389</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y19" t="n">
-        <v>1375.649804642131</v>
+        <v>742.8905159778161</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5738,10 +5740,10 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
         <v>137.1995846623573</v>
@@ -5750,16 +5752,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>533.9931985757493</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1463.618246195026</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2467.904347614084</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N20" t="n">
         <v>3444.155406100785</v>
@@ -5829,28 +5831,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M21" t="n">
-        <v>1158.289251381874</v>
+        <v>739.6560874287652</v>
       </c>
       <c r="N21" t="n">
-        <v>1158.289251381874</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1185.483835930065</v>
+        <v>4017.903765402532</v>
       </c>
       <c r="C22" t="n">
-        <v>1013.511272808982</v>
+        <v>3845.931202281448</v>
       </c>
       <c r="D22" t="n">
-        <v>850.1944999357522</v>
+        <v>3682.614429408219</v>
       </c>
       <c r="E22" t="n">
-        <v>683.9862940886057</v>
+        <v>3516.406223561072</v>
       </c>
       <c r="F22" t="n">
-        <v>512.1245198631661</v>
+        <v>3344.544449335633</v>
       </c>
       <c r="G22" t="n">
-        <v>345.8675501573982</v>
+        <v>3178.287479629865</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>3034.491211138019</v>
       </c>
       <c r="I22" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878295</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102453</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.74157230829</v>
       </c>
       <c r="L22" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602711</v>
       </c>
       <c r="M22" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572962</v>
       </c>
       <c r="N22" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199448998</v>
       </c>
       <c r="O22" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128761</v>
       </c>
       <c r="P22" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q22" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S22" t="n">
-        <v>2235.67712750613</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T22" t="n">
-        <v>1992.33777973203</v>
+        <v>4654.622661723635</v>
       </c>
       <c r="U22" t="n">
-        <v>1992.33777973203</v>
+        <v>4654.622661723635</v>
       </c>
       <c r="V22" t="n">
-        <v>1710.626312340059</v>
+        <v>4654.622661723635</v>
       </c>
       <c r="W22" t="n">
-        <v>1710.626312340059</v>
+        <v>4654.622661723635</v>
       </c>
       <c r="X22" t="n">
-        <v>1601.992572952389</v>
+        <v>4434.412502424856</v>
       </c>
       <c r="Y22" t="n">
-        <v>1375.649804642131</v>
+        <v>4208.069734114598</v>
       </c>
     </row>
     <row r="23">
@@ -5993,16 +5995,16 @@
         <v>817.8110213813276</v>
       </c>
       <c r="L23" t="n">
-        <v>1463.618246195026</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M23" t="n">
-        <v>2467.904347614084</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N23" t="n">
-        <v>3444.155406100785</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O23" t="n">
-        <v>4289.300056251597</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P23" t="n">
         <v>4997.579335409525</v>
@@ -6063,16 +6065,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M24" t="n">
         <v>821.6753975134684</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>850.3052888313966</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="C25" t="n">
-        <v>678.3327257103126</v>
+        <v>570.9179528567321</v>
       </c>
       <c r="D25" t="n">
-        <v>678.3327257103126</v>
+        <v>407.6011799835028</v>
       </c>
       <c r="E25" t="n">
-        <v>512.1245198631661</v>
+        <v>407.6011799835028</v>
       </c>
       <c r="F25" t="n">
-        <v>512.1245198631661</v>
+        <v>235.7394057580632</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573982</v>
+        <v>235.7394057580632</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6172,25 +6174,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>2235.67712750613</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T25" t="n">
-        <v>1992.33777973203</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U25" t="n">
-        <v>1791.089389799886</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V25" t="n">
-        <v>1509.377922407915</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W25" t="n">
-        <v>1509.377922407915</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X25" t="n">
-        <v>1266.81402585372</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y25" t="n">
-        <v>1040.471257543462</v>
+        <v>742.8905159778161</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6226,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>786.1869982294937</v>
+        <v>651.5495334576516</v>
       </c>
       <c r="L26" t="n">
-        <v>1715.81204584877</v>
+        <v>1581.174581076928</v>
       </c>
       <c r="M26" t="n">
-        <v>2720.098147267829</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N26" t="n">
-        <v>3696.34920575453</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O26" t="n">
-        <v>4541.493855905342</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P26" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C27" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D27" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E27" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F27" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G27" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H27" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J27" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K27" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L27" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>3306.448039710919</v>
+        <v>357.5299206506891</v>
       </c>
       <c r="N27" t="n">
-        <v>4225.654392279956</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O27" t="n">
-        <v>5115.135670291427</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P27" t="n">
-        <v>5115.135670291427</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q27" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R27" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S27" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T27" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U27" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V27" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W27" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X27" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y27" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="28">
@@ -6358,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>756.1902889499656</v>
+        <v>741.8809303238178</v>
       </c>
       <c r="C28" t="n">
-        <v>584.2177258288816</v>
+        <v>741.8809303238178</v>
       </c>
       <c r="D28" t="n">
-        <v>584.2177258288816</v>
+        <v>578.5641574505885</v>
       </c>
       <c r="E28" t="n">
-        <v>584.2177258288816</v>
+        <v>412.355951603442</v>
       </c>
       <c r="F28" t="n">
         <v>412.355951603442</v>
@@ -6415,19 +6417,19 @@
         <v>1822.202732251165</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.018283751469</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="V28" t="n">
-        <v>1499.949357641905</v>
+        <v>1675.805967727823</v>
       </c>
       <c r="W28" t="n">
-        <v>1225.096953814418</v>
+        <v>1400.953563900336</v>
       </c>
       <c r="X28" t="n">
-        <v>982.5330572602236</v>
+        <v>1158.389667346141</v>
       </c>
       <c r="Y28" t="n">
-        <v>756.1902889499656</v>
+        <v>932.0468990358834</v>
       </c>
     </row>
     <row r="29">
@@ -6464,19 +6466,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>786.1869982294937</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L29" t="n">
-        <v>1715.81204584877</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M29" t="n">
-        <v>2720.098147267829</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N29" t="n">
-        <v>3696.34920575453</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O29" t="n">
-        <v>4541.493855905342</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
         <v>4541.493855905342</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1185.483835930065</v>
+        <v>941.9189991784958</v>
       </c>
       <c r="C31" t="n">
-        <v>1013.511272808982</v>
+        <v>769.9464360574118</v>
       </c>
       <c r="D31" t="n">
-        <v>850.1944999357522</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="E31" t="n">
-        <v>683.9862940886057</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F31" t="n">
-        <v>512.1245198631661</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G31" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6646,25 +6648,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T31" t="n">
-        <v>1869.241345563992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U31" t="n">
-        <v>1869.241345563992</v>
+        <v>2157.555503974472</v>
       </c>
       <c r="V31" t="n">
-        <v>1869.241345563992</v>
+        <v>1875.844036582501</v>
       </c>
       <c r="W31" t="n">
-        <v>1594.388941736505</v>
+        <v>1600.991632755014</v>
       </c>
       <c r="X31" t="n">
-        <v>1594.388941736505</v>
+        <v>1358.427736200819</v>
       </c>
       <c r="Y31" t="n">
-        <v>1375.649804642131</v>
+        <v>1132.084967890562</v>
       </c>
     </row>
     <row r="32">
@@ -6701,25 +6703,25 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1394.531219842001</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2398.817321261059</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N32" t="n">
-        <v>3375.06837974776</v>
+        <v>3813.905540636432</v>
       </c>
       <c r="O32" t="n">
-        <v>4220.213029898572</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="P32" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742373</v>
       </c>
       <c r="C33" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259878</v>
       </c>
       <c r="D33" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775163</v>
       </c>
       <c r="E33" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.523735048101</v>
       </c>
       <c r="F33" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731005</v>
       </c>
       <c r="G33" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948609</v>
       </c>
       <c r="H33" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="K33" t="n">
-        <v>692.7876399741681</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="L33" t="n">
-        <v>692.7876399741681</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="M33" t="n">
-        <v>692.7876399741681</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="N33" t="n">
-        <v>1194.79262694784</v>
+        <v>4225.654392279956</v>
       </c>
       <c r="O33" t="n">
-        <v>1194.79262694784</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q33" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R33" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S33" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.811422852682</v>
       </c>
       <c r="T33" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.93148715036</v>
       </c>
       <c r="U33" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069997</v>
       </c>
       <c r="V33" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209264</v>
       </c>
       <c r="W33" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.668775042481</v>
       </c>
       <c r="X33" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809144</v>
       </c>
       <c r="Y33" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162436</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>913.7427045492574</v>
+        <v>3676.99346002955</v>
       </c>
       <c r="C34" t="n">
-        <v>913.7427045492574</v>
+        <v>3505.020896908466</v>
       </c>
       <c r="D34" t="n">
-        <v>750.4259316760281</v>
+        <v>3341.704124035237</v>
       </c>
       <c r="E34" t="n">
-        <v>584.2177258288816</v>
+        <v>3175.49591818809</v>
       </c>
       <c r="F34" t="n">
-        <v>412.355951603442</v>
+        <v>3003.634143962651</v>
       </c>
       <c r="G34" t="n">
-        <v>246.0989818976742</v>
+        <v>3003.634143962651</v>
       </c>
       <c r="H34" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="I34" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L34" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M34" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N34" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O34" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P34" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q34" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R34" t="n">
-        <v>2282.715740818957</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S34" t="n">
-        <v>2112.580693338092</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T34" t="n">
-        <v>1869.241345563992</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="U34" t="n">
-        <v>1589.056897064296</v>
+        <v>4617.77756099804</v>
       </c>
       <c r="V34" t="n">
-        <v>1307.345429672325</v>
+        <v>4336.066093606069</v>
       </c>
       <c r="W34" t="n">
-        <v>1103.908673261323</v>
+        <v>4336.066093606069</v>
       </c>
       <c r="X34" t="n">
-        <v>1103.908673261323</v>
+        <v>4093.502197051874</v>
       </c>
       <c r="Y34" t="n">
-        <v>1103.908673261323</v>
+        <v>3867.159428741616</v>
       </c>
     </row>
     <row r="35">
@@ -6911,61 +6913,61 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D35" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E35" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F35" t="n">
-        <v>839.407025598874</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883227</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.906172222724</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>1040.60870410428</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L35" t="n">
-        <v>1970.233751723556</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M35" t="n">
-        <v>2974.519853142614</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N35" t="n">
-        <v>3950.770911629315</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O35" t="n">
-        <v>3950.770911629315</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P35" t="n">
-        <v>4659.050190787243</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -6980,7 +6982,7 @@
         <v>3365.887132399956</v>
       </c>
       <c r="Y35" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7013,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L36" t="n">
-        <v>939.1015214887346</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M36" t="n">
-        <v>939.1015214887346</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N36" t="n">
-        <v>939.1015214887346</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O36" t="n">
-        <v>939.1015214887346</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P36" t="n">
-        <v>1655.299238527233</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q36" t="n">
         <v>1910.990343986338</v>
@@ -7069,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>798.2592150595294</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C37" t="n">
-        <v>798.2592150595294</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D37" t="n">
-        <v>798.2592150595294</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E37" t="n">
-        <v>632.051009212383</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F37" t="n">
-        <v>512.124519863166</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G37" t="n">
         <v>345.8675501573982</v>
@@ -7093,52 +7095,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
       </c>
       <c r="M37" t="n">
-        <v>1132.196759100495</v>
+        <v>1132.196759100498</v>
       </c>
       <c r="N37" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976534</v>
       </c>
       <c r="O37" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656297</v>
       </c>
       <c r="P37" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578198</v>
       </c>
       <c r="Q37" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="S37" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338095</v>
       </c>
       <c r="T37" t="n">
-        <v>1822.202732251165</v>
+        <v>2112.580693338095</v>
       </c>
       <c r="U37" t="n">
-        <v>1542.018283751469</v>
+        <v>1832.396244838399</v>
       </c>
       <c r="V37" t="n">
-        <v>1542.018283751469</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="W37" t="n">
-        <v>1267.165879923982</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="X37" t="n">
-        <v>1024.601983369787</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y37" t="n">
-        <v>798.2592150595294</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="38">
@@ -7172,49 +7174,49 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.906172222724</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K38" t="n">
-        <v>464.906172222724</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L38" t="n">
-        <v>1007.532766690841</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M38" t="n">
-        <v>2011.818868109899</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N38" t="n">
-        <v>2988.0699265966</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747412</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.49385590534</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409523</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
-        <v>4531.487895805611</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.99848093186</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232207</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y38" t="n">
         <v>2960.549862354846</v>
@@ -7242,37 +7244,37 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G39" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H39" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L39" t="n">
-        <v>772.98449592559</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M39" t="n">
-        <v>1828.971033901635</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N39" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O39" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P39" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q39" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>516.5477476675582</v>
+        <v>3375.975369221655</v>
       </c>
       <c r="C40" t="n">
-        <v>516.5477476675582</v>
+        <v>3375.975369221655</v>
       </c>
       <c r="D40" t="n">
-        <v>417.9607561231137</v>
+        <v>3250.380685595584</v>
       </c>
       <c r="E40" t="n">
-        <v>417.9607561231137</v>
+        <v>3250.380685595584</v>
       </c>
       <c r="F40" t="n">
-        <v>246.0989818976741</v>
+        <v>3078.518911370144</v>
       </c>
       <c r="G40" t="n">
-        <v>246.0989818976741</v>
+        <v>3078.518911370144</v>
       </c>
       <c r="H40" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="I40" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299865</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358237</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L40" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M40" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N40" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O40" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P40" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q40" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.67712750613</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S40" t="n">
-        <v>2065.542080025265</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="T40" t="n">
-        <v>1822.202732251165</v>
+        <v>4871.796322517327</v>
       </c>
       <c r="U40" t="n">
-        <v>1542.018283751469</v>
+        <v>4591.611874017632</v>
       </c>
       <c r="V40" t="n">
-        <v>1260.306816359498</v>
+        <v>4309.90040662566</v>
       </c>
       <c r="W40" t="n">
-        <v>985.454412532011</v>
+        <v>4035.048002798173</v>
       </c>
       <c r="X40" t="n">
-        <v>742.8905159778161</v>
+        <v>3792.484106243979</v>
       </c>
       <c r="Y40" t="n">
-        <v>516.5477476675582</v>
+        <v>3566.14133793372</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1985.713973172507</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C41" t="n">
-        <v>1985.713973172507</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D41" t="n">
-        <v>1562.421352357507</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E41" t="n">
-        <v>1199.815872510116</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>774.691690699516</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G41" t="n">
-        <v>370.3526282889646</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H41" t="n">
-        <v>72.48424976299948</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I41" t="n">
-        <v>72.48424976299948</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>435.087708579895</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K41" t="n">
-        <v>435.087708579895</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>1332.080299397014</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>1332.080299397014</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N41" t="n">
-        <v>2229.072890214132</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O41" t="n">
-        <v>3074.217540364944</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P41" t="n">
-        <v>3074.217540364944</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q41" t="n">
-        <v>3530.303019869127</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R41" t="n">
-        <v>3624.212488149974</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S41" t="n">
-        <v>3624.212488149974</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T41" t="n">
-        <v>3403.286917194607</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U41" t="n">
-        <v>3144.93200779102</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>2787.442592917269</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W41" t="n">
-        <v>2391.051243217617</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
-        <v>2391.051243217617</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y41" t="n">
-        <v>1985.713973172507</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>639.6077407944547</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C42" t="n">
-        <v>522.1018373119595</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D42" t="n">
-        <v>418.2618788272445</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E42" t="n">
-        <v>313.5599451001817</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F42" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>125.8603430006899</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H42" t="n">
-        <v>72.48424976299948</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>72.48424976299948</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J42" t="n">
-        <v>72.48424976299948</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K42" t="n">
-        <v>72.48424976299948</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="L42" t="n">
-        <v>909.2830578459057</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="M42" t="n">
-        <v>909.2830578459057</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="N42" t="n">
-        <v>909.2830578459057</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O42" t="n">
-        <v>1798.764335857377</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P42" t="n">
-        <v>1881.171880343509</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q42" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R42" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S42" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T42" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U42" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V42" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W42" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X42" t="n">
-        <v>908.227638861225</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y42" t="n">
-        <v>768.5347502145174</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>983.8035980617967</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="C43" t="n">
-        <v>811.8310349407127</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="D43" t="n">
-        <v>648.5142620674834</v>
+        <v>683.9375302299843</v>
       </c>
       <c r="E43" t="n">
-        <v>482.306056220337</v>
+        <v>517.7293243828378</v>
       </c>
       <c r="F43" t="n">
-        <v>482.306056220337</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G43" t="n">
-        <v>316.0490865145691</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H43" t="n">
-        <v>172.2528180227235</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I43" t="n">
-        <v>72.48424976299948</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K43" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L43" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M43" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N43" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O43" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P43" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q43" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>2082.762229695263</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T43" t="n">
-        <v>2082.762229695263</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U43" t="n">
-        <v>1802.577781195567</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V43" t="n">
-        <v>1802.577781195567</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W43" t="n">
-        <v>1527.72537736808</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X43" t="n">
-        <v>1400.31233508412</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y43" t="n">
-        <v>1173.969566773862</v>
+        <v>789.9291292906429</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2078.815235409136</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C44" t="n">
-        <v>2078.815235409136</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D44" t="n">
-        <v>1655.522614594136</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E44" t="n">
-        <v>1229.545674741994</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F44" t="n">
-        <v>804.4214929313941</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G44" t="n">
-        <v>405.2494995454934</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H44" t="n">
-        <v>107.3811210195283</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
-        <v>72.48424976299948</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>435.087708579895</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K44" t="n">
-        <v>435.087708579895</v>
+        <v>533.9931985757493</v>
       </c>
       <c r="L44" t="n">
-        <v>1332.080299397014</v>
+        <v>1463.618246195026</v>
       </c>
       <c r="M44" t="n">
-        <v>1332.080299397014</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N44" t="n">
-        <v>2070.788558841234</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O44" t="n">
-        <v>2915.933208992046</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P44" t="n">
-        <v>3624.212488149974</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q44" t="n">
-        <v>3624.212488149974</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R44" t="n">
-        <v>3624.212488149974</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>3519.845194023114</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T44" t="n">
-        <v>3519.845194023114</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U44" t="n">
-        <v>3261.490284619526</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>2904.000869745776</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W44" t="n">
-        <v>2904.000869745776</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X44" t="n">
-        <v>2904.000869745776</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y44" t="n">
-        <v>2498.663599700667</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>639.6077407944547</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>522.1018373119595</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>418.2618788272445</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>313.5599451001817</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>125.8603430006899</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>72.48424976299948</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>72.48424976299948</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J45" t="n">
-        <v>344.1817390425906</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K45" t="n">
-        <v>520.0338126636113</v>
+        <v>557.3635891120873</v>
       </c>
       <c r="L45" t="n">
-        <v>520.0338126636113</v>
+        <v>557.3635891120873</v>
       </c>
       <c r="M45" t="n">
-        <v>520.0338126636113</v>
+        <v>557.3635891120873</v>
       </c>
       <c r="N45" t="n">
-        <v>1417.02640348073</v>
+        <v>557.3635891120873</v>
       </c>
       <c r="O45" t="n">
-        <v>1417.02640348073</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P45" t="n">
-        <v>1417.02640348073</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q45" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R45" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>908.227638861225</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>768.5347502145174</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>848.5523309221614</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C46" t="n">
-        <v>676.5797678010774</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D46" t="n">
-        <v>676.5797678010774</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E46" t="n">
-        <v>510.371561953931</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F46" t="n">
-        <v>338.5097877284913</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G46" t="n">
-        <v>172.2528180227235</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H46" t="n">
-        <v>172.2528180227235</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I46" t="n">
-        <v>72.48424976299948</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K46" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L46" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2205.858663863301</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S46" t="n">
-        <v>2035.723616382436</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T46" t="n">
-        <v>1792.384268608336</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U46" t="n">
-        <v>1512.19982010864</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V46" t="n">
-        <v>1512.19982010864</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W46" t="n">
-        <v>1237.347416281153</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X46" t="n">
-        <v>994.7835197269582</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y46" t="n">
-        <v>994.7835197269582</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
   </sheetData>
@@ -7979,28 +7981,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>497.1645065551435</v>
+        <v>519.5412919487773</v>
       </c>
       <c r="L2" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>158.327948609819</v>
       </c>
       <c r="O2" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>521.3520529641992</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>111.5240152033034</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,28 +8057,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>506.1759249873012</v>
       </c>
       <c r="L3" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>484.4966862726622</v>
+        <v>139.2248774348361</v>
       </c>
       <c r="N3" t="n">
-        <v>482.7429339738759</v>
+        <v>505.1197193675096</v>
       </c>
       <c r="O3" t="n">
-        <v>465.9293750477954</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
         <v>23.67291939414415</v>
@@ -8134,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
         <v>249.7804132464869</v>
@@ -8152,10 +8154,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>126.7901678844537</v>
+        <v>29.03818836740729</v>
       </c>
       <c r="Q4" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
-        <v>456.4271212953047</v>
+        <v>571.0335849150666</v>
       </c>
       <c r="O5" t="n">
-        <v>498.7908651163583</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>498.9752675705655</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,25 +8294,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>178.8848775931265</v>
       </c>
       <c r="K6" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>483.9149924745637</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
-        <v>465.8542658379009</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>483.1707469651629</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
         <v>22.7470382889785</v>
@@ -8380,7 +8382,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M7" t="n">
-        <v>42.2324077072759</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N7" t="n">
         <v>402.0534574160406</v>
@@ -8389,7 +8391,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P7" t="n">
-        <v>315.9153581548562</v>
+        <v>315.915358154857</v>
       </c>
       <c r="Q7" t="n">
         <v>152.9025226039384</v>
@@ -8453,22 +8455,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>497.1645065551435</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>113.770988142953</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>498.9752675705655</v>
+        <v>205.0632038737858</v>
       </c>
       <c r="Q8" t="n">
         <v>36.12467460459804</v>
@@ -8535,19 +8537,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>91.00089423008572</v>
       </c>
       <c r="N9" t="n">
-        <v>482.7429339738759</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
-        <v>484.5717954825564</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
-        <v>374.1586769883663</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
         <v>22.7470382889785</v>
@@ -8608,10 +8610,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K10" t="n">
-        <v>60.65522297608413</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L10" t="n">
         <v>380.1908016072373</v>
@@ -8629,7 +8631,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q10" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>944.3651644701168</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>943.4843849369257</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N11" t="n">
-        <v>943.33274487194</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>64.09015246138361</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8766,22 +8768,22 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>586.0136180748451</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M12" t="n">
-        <v>929.1499025498219</v>
+        <v>106.3367244377138</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
@@ -8790,7 +8792,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,25 +8929,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>944.3651644701168</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>943.4843849369257</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>943.33274487194</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P14" t="n">
-        <v>422.010384271667</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>236.8553498857486</v>
       </c>
       <c r="R14" t="n">
         <v>153.7764225027789</v>
@@ -9000,28 +9002,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>37.31551543940147</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M15" t="n">
-        <v>23.09678051232798</v>
+        <v>281.3706244104145</v>
       </c>
       <c r="N15" t="n">
-        <v>927.3961502510356</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
@@ -9176,16 +9178,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
-        <v>37.3909593560241</v>
+        <v>356.8654072451563</v>
       </c>
       <c r="P17" t="n">
-        <v>493.0472488628404</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9249,22 +9251,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>23.09678051232798</v>
+        <v>1043.774157741933</v>
       </c>
       <c r="N18" t="n">
-        <v>949.8342934347922</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q18" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>471.8155959159414</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
         <v>977.3272420480539</v>
@@ -9410,7 +9412,7 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>370.4410136063929</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9477,7 +9479,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
         <v>22.39923383333334</v>
@@ -9486,13 +9488,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.749849175</v>
+        <v>392.4461590409599</v>
       </c>
       <c r="N21" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O21" t="n">
-        <v>783.4760236661258</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
@@ -9501,7 +9503,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9641,7 +9643,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
-        <v>690.6425725474697</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
         <v>1051.861668373228</v>
@@ -9653,7 +9655,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>753.0089771212694</v>
+        <v>466.324307620685</v>
       </c>
       <c r="Q23" t="n">
         <v>36.12467460459804</v>
@@ -9711,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
         <v>20.61111433333334</v>
@@ -9723,7 +9725,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>742.2139937908412</v>
       </c>
       <c r="N24" t="n">
         <v>1121.661155963915</v>
@@ -9872,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
-        <v>360.2906876703342</v>
+        <v>590.5593685239236</v>
       </c>
       <c r="L26" t="n">
         <v>977.3272420480539</v>
@@ -9890,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9960,19 +9962,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>23.09678051232798</v>
+        <v>280.9020403556215</v>
       </c>
       <c r="N27" t="n">
-        <v>949.834293434791</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O27" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10112,10 +10114,10 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
-        <v>726.5568076874005</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>977.3272420480539</v>
+        <v>229.9501690078907</v>
       </c>
       <c r="M29" t="n">
         <v>1051.861668373228</v>
@@ -10127,7 +10129,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
         <v>496.8170781441769</v>
@@ -10349,7 +10351,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
@@ -10358,19 +10360,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>743.9259979858341</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>362.1014486857561</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q32" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,7 +10430,7 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
@@ -10437,13 +10439,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>528.4187726313924</v>
+        <v>949.834293434791</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P33" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
         <v>22.7470382889785</v>
@@ -10583,22 +10585,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
-        <v>617.2823097660777</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>304.4845953330648</v>
       </c>
       <c r="N35" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
         <v>753.0089771212694</v>
@@ -10607,7 +10609,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
         <v>20.61111433333334</v>
@@ -10668,22 +10670,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>23.09678051232798</v>
+        <v>742.2139937908412</v>
       </c>
       <c r="N36" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>281.0208821870649</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10820,16 +10822,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K38" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>586.4197136125388</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>304.4845953330648</v>
       </c>
       <c r="N38" t="n">
         <v>1023.391803124043</v>
@@ -10896,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
         <v>20.61111433333334</v>
@@ -10905,13 +10907,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
-        <v>699.9714326937866</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>1089.749849175</v>
+        <v>742.2139937908412</v>
       </c>
       <c r="N39" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
@@ -10923,7 +10925,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,19 +11062,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>944.3651644701164</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>943.3327448719396</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>891.0724241548241</v>
+        <v>492.8628464086332</v>
       </c>
       <c r="P41" t="n">
         <v>37.5753618102313</v>
@@ -11081,7 +11083,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8906986633286</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,16 +11135,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>867.7664080100944</v>
+        <v>776.6671919541075</v>
       </c>
       <c r="M42" t="n">
         <v>23.09678051232798</v>
@@ -11151,13 +11153,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>105.0107851302144</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11297,16 +11299,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>105.5494758988752</v>
       </c>
       <c r="L44" t="n">
-        <v>944.3651644701164</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>783.4495818690124</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
@@ -11318,7 +11320,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11378,7 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>200.0275910262836</v>
+        <v>207.6147756784522</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
@@ -11385,10 +11387,10 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>927.3961502510351</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P45" t="n">
         <v>21.77084120482866</v>
@@ -23270,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,13 +23317,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>146.8091562286907</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,16 +23418,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>33.48300537539896</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>169.1436666857268</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23555,13 +23557,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>237.1324571177045</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23653,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>53.36606475924742</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>111.9376578195548</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23941,22 +23943,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>60.1185983045572</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -24175,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,13 +24186,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>132.5908555948599</v>
+        <v>22.13019988286152</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>10.25598037821484</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,25 +24414,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>78.14669798187649</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -24598,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24655,10 +24657,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>237.2461158695832</v>
+        <v>133.9615558399431</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,25 +24888,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>153.473969538659</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>7.5275949037256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25087,10 +25089,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>74.13591973341863</v>
       </c>
       <c r="I34" t="n">
         <v>98.77088257712678</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>70.70149094232028</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>51.41593202746043</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25357,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>50.79471755090174</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>64.08248351549699</v>
+        <v>37.34486835468677</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25625,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>62.73774540470345</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25646,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25691,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25783,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>56.75192207444501</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25837,22 +25839,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>113.9993457275329</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -25865,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25877,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.115398334404176</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25916,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25925,10 +25927,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>43.49543210819624</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,19 +26031,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>118.5577190788907</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>357511.6055207057</v>
+        <v>449624.3225099577</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>357511.6055207057</v>
+        <v>449624.3225099578</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>449624.3225099578</v>
+        <v>449624.3225099577</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>449624.3225099578</v>
+        <v>449624.3225099579</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>449624.3225099578</v>
+        <v>449624.3225099577</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>449624.3225099577</v>
+        <v>449624.3225099579</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>449624.3225099579</v>
+        <v>449624.3225099578</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>449624.3225099578</v>
+        <v>449624.3225099579</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>449624.3225099578</v>
+        <v>449624.3225099579</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>357511.6055207056</v>
+        <v>449624.3225099578</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>357511.6055207055</v>
+        <v>449624.3225099578</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>553320.5346106049</v>
+        <v>553320.5346106051</v>
       </c>
       <c r="C2" t="n">
         <v>553320.5346106048</v>
       </c>
       <c r="D2" t="n">
-        <v>553320.5346106049</v>
+        <v>553320.5346106051</v>
       </c>
       <c r="E2" t="n">
-        <v>424545.0315558378</v>
+        <v>533928.8829805749</v>
       </c>
       <c r="F2" t="n">
-        <v>424545.0315558378</v>
+        <v>533928.8829805747</v>
       </c>
       <c r="G2" t="n">
+        <v>533928.8829805746</v>
+      </c>
+      <c r="H2" t="n">
         <v>533928.8829805747</v>
       </c>
-      <c r="H2" t="n">
-        <v>533928.8829805746</v>
-      </c>
       <c r="I2" t="n">
+        <v>533928.8829805749</v>
+      </c>
+      <c r="J2" t="n">
         <v>533928.8829805747</v>
       </c>
-      <c r="J2" t="n">
-        <v>533928.8829805746</v>
-      </c>
       <c r="K2" t="n">
-        <v>533928.8829805749</v>
+        <v>533928.8829805745</v>
       </c>
       <c r="L2" t="n">
-        <v>533928.8829805749</v>
+        <v>533928.8829805751</v>
       </c>
       <c r="M2" t="n">
         <v>533928.8829805749</v>
       </c>
       <c r="N2" t="n">
-        <v>533928.8829805747</v>
+        <v>533928.8829805749</v>
       </c>
       <c r="O2" t="n">
-        <v>424545.0315558376</v>
+        <v>533928.8829805744</v>
       </c>
       <c r="P2" t="n">
-        <v>424545.0315558377</v>
+        <v>533928.8829805746</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>154625.7206181205</v>
+        <v>162124.6960695912</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23406.83367361226</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>132763.6680096018</v>
+        <v>215739.3565566406</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>102159.9200943099</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>120722.5169427569</v>
+        <v>126577.2685802888</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>18646.60035701983</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>110809.3601091333</v>
+        <v>180063.8714551677</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>161210.2618115457</v>
+        <v>156089.0640777231</v>
       </c>
       <c r="C4" t="n">
-        <v>161210.2618115457</v>
+        <v>139507.7493322929</v>
       </c>
       <c r="D4" t="n">
-        <v>161210.2618115457</v>
+        <v>139507.7493322929</v>
       </c>
       <c r="E4" t="n">
-        <v>623.8421757123213</v>
+        <v>800.0602599433672</v>
       </c>
       <c r="F4" t="n">
-        <v>623.8421757123213</v>
+        <v>800.0602599433672</v>
       </c>
       <c r="G4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.0602599433672</v>
       </c>
       <c r="H4" t="n">
-        <v>800.0602599433672</v>
+        <v>800.0602599433674</v>
       </c>
       <c r="I4" t="n">
         <v>800.0602599433672</v>
@@ -26442,22 +26444,22 @@
         <v>800.0602599433671</v>
       </c>
       <c r="K4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.0602599433672</v>
       </c>
       <c r="L4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.0602599433672</v>
       </c>
       <c r="M4" t="n">
-        <v>800.060259943367</v>
+        <v>800.0602599433672</v>
       </c>
       <c r="N4" t="n">
-        <v>800.0602599433669</v>
+        <v>800.0602599433104</v>
       </c>
       <c r="O4" t="n">
-        <v>623.842175712321</v>
+        <v>800.0602599433673</v>
       </c>
       <c r="P4" t="n">
-        <v>623.842175712321</v>
+        <v>800.0602599433672</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61680.71427022832</v>
+        <v>63041.22282216125</v>
       </c>
       <c r="C5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>55088.02981987963</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="F5" t="n">
-        <v>55088.02981987963</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26500,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>55088.0298198796</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="P5" t="n">
-        <v>55088.0298198796</v>
+        <v>77750.06218842969</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>175803.8379107103</v>
+        <v>172065.5516411295</v>
       </c>
       <c r="C6" t="n">
-        <v>330429.5585288308</v>
+        <v>322959.7005672714</v>
       </c>
       <c r="D6" t="n">
-        <v>330429.5585288309</v>
+        <v>346366.534240884</v>
       </c>
       <c r="E6" t="n">
-        <v>236069.491550644</v>
+        <v>239639.4039755612</v>
       </c>
       <c r="F6" t="n">
-        <v>368833.1595602458</v>
+        <v>455378.7605322017</v>
       </c>
       <c r="G6" t="n">
-        <v>353218.8404378917</v>
+        <v>455378.7605322016</v>
       </c>
       <c r="H6" t="n">
+        <v>455378.7605322017</v>
+      </c>
+      <c r="I6" t="n">
+        <v>455378.7605322018</v>
+      </c>
+      <c r="J6" t="n">
+        <v>328801.4919519129</v>
+      </c>
+      <c r="K6" t="n">
+        <v>436732.1601751816</v>
+      </c>
+      <c r="L6" t="n">
+        <v>455378.760532202</v>
+      </c>
+      <c r="M6" t="n">
+        <v>275314.8890770341</v>
+      </c>
+      <c r="N6" t="n">
+        <v>455378.7605322018</v>
+      </c>
+      <c r="O6" t="n">
+        <v>455378.7605322013</v>
+      </c>
+      <c r="P6" t="n">
         <v>455378.7605322016</v>
-      </c>
-      <c r="I6" t="n">
-        <v>455378.7605322017</v>
-      </c>
-      <c r="J6" t="n">
-        <v>334656.2435894447</v>
-      </c>
-      <c r="K6" t="n">
-        <v>455378.7605322018</v>
-      </c>
-      <c r="L6" t="n">
-        <v>455378.7605322018</v>
-      </c>
-      <c r="M6" t="n">
-        <v>344569.4004230686</v>
-      </c>
-      <c r="N6" t="n">
-        <v>455378.7605322017</v>
-      </c>
-      <c r="O6" t="n">
-        <v>368833.1595602456</v>
-      </c>
-      <c r="P6" t="n">
-        <v>368833.1595602458</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>906.0531220374939</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>906.0531220374939</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26823,13 +26825,13 @@
         <v>1278.783917572857</v>
       </c>
       <c r="N4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>906.0531220374935</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>906.0531220374935</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>72.45112196162626</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>444.6532162771598</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>372.7307955353629</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162626</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>444.6532162771596</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162626</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>444.6532162771598</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>372.7307955353629</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
+        <v>190.768174828271</v>
+      </c>
+      <c r="D2" t="n">
         <v>400</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27427,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
@@ -27442,10 +27444,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>318.5130220887419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27546,7 +27548,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27555,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,19 +27587,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>27.88146783737554</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>55.6810356349992</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
@@ -27616,16 +27618,16 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>400</v>
       </c>
-      <c r="D5" t="n">
-        <v>213.4027168294475</v>
-      </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27664,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
@@ -27673,16 +27675,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>302.6327158757587</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27789,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>100.1731491579255</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27822,19 +27824,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.1257425437763</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
@@ -27856,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27906,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>229.0153817891225</v>
+        <v>53.82850041003985</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28011,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28065,19 +28067,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>186.5674504710245</v>
+        <v>108.9108341743203</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -34699,28 +34701,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="L2" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>121.048325775373</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>76.49136530850697</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>461.3999057603342</v>
+        <v>116.1280969225081</v>
       </c>
       <c r="N3" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="O3" t="n">
-        <v>442.7574853255732</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
         <v>228.8157587937749</v>
@@ -34872,10 +34874,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>104.4093672264672</v>
+        <v>6.657387709420811</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N5" t="n">
-        <v>419.1474984608587</v>
+        <v>533.7539620806206</v>
       </c>
       <c r="O5" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
-        <v>442.7574853255729</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35100,7 +35102,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M7" t="n">
-        <v>19.65696781579008</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N7" t="n">
         <v>381.3045564404402</v>
@@ -35109,7 +35111,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P7" t="n">
-        <v>293.5345574968697</v>
+        <v>293.5345574968705</v>
       </c>
       <c r="Q7" t="n">
         <v>128.2829598391535</v>
@@ -35173,22 +35175,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>76.49136530850697</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>461.3999057603342</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35255,19 +35257,19 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>67.90411371775774</v>
       </c>
       <c r="N9" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O9" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P9" t="n">
-        <v>352.3878357835376</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35328,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K10" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L10" t="n">
         <v>358.2720417115361</v>
@@ -35349,7 +35351,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>906.0531220374939</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>906.0531220374939</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N11" t="n">
-        <v>906.0531220374939</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>27.96547785678557</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35486,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>563.6143842415117</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M12" t="n">
-        <v>906.0531220374939</v>
+        <v>83.23994392538586</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35510,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35647,25 +35649,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>906.0531220374939</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>906.0531220374939</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>906.0531220374939</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>384.4350224614357</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>200.7306752811506</v>
       </c>
       <c r="R14" t="n">
         <v>118.7437726079824</v>
@@ -35720,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>14.91628160606813</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>258.2738438980865</v>
       </c>
       <c r="N15" t="n">
-        <v>906.0531220374939</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35896,16 +35898,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>319.4744478891323</v>
       </c>
       <c r="P17" t="n">
-        <v>455.4718870526091</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,22 +35971,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1020.677377229605</v>
       </c>
       <c r="N18" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>436.0509951211321</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
         <v>939.015199615431</v>
@@ -36130,7 +36132,7 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>333.1613907719469</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36197,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36206,13 +36208,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1066.653068662672</v>
+        <v>369.3493785286319</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O21" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36221,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36294,7 +36296,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P22" t="n">
-        <v>293.5345574968697</v>
+        <v>293.5345574968734</v>
       </c>
       <c r="Q22" t="n">
         <v>128.2829598391535</v>
@@ -36361,7 +36363,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
-        <v>652.3305301148469</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
         <v>1014.430405473796</v>
@@ -36373,7 +36375,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>715.433615311038</v>
+        <v>428.7489458104537</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36431,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -36443,7 +36445,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>719.1172132785132</v>
       </c>
       <c r="N24" t="n">
         <v>1100.318127750374</v>
@@ -36592,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.5260868755249</v>
+        <v>554.7947677291143</v>
       </c>
       <c r="L26" t="n">
         <v>939.015199615431</v>
@@ -36610,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,19 +36682,19 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>257.8052598432935</v>
       </c>
       <c r="N27" t="n">
-        <v>928.4912652212494</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O27" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36832,10 +36834,10 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>690.7922068925911</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>939.015199615431</v>
+        <v>191.6381265752678</v>
       </c>
       <c r="M29" t="n">
         <v>1014.430405473796</v>
@@ -36847,7 +36849,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
         <v>460.6924035395789</v>
@@ -37069,7 +37071,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
@@ -37078,19 +37080,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N32" t="n">
-        <v>986.1121802895968</v>
+        <v>706.646375151388</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>324.5260868755248</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37157,13 +37159,13 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>507.0757444178507</v>
+        <v>928.4912652212494</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P33" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37303,22 +37305,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>581.5177089712683</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>267.053332433633</v>
       </c>
       <c r="N35" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
         <v>715.433615311038</v>
@@ -37327,7 +37329,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37388,22 +37390,22 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>719.1172132785132</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>258.2738438980864</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37470,7 +37472,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M37" t="n">
-        <v>395.137166636617</v>
+        <v>395.1371666366198</v>
       </c>
       <c r="N37" t="n">
         <v>381.3045564404402</v>
@@ -37540,16 +37542,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>548.1076711799159</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>267.053332433633</v>
       </c>
       <c r="N38" t="n">
         <v>986.1121802895968</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37625,13 +37627,13 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>677.456345979557</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1066.653068662672</v>
+        <v>719.1172132785132</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37643,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37780,19 +37782,19 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>906.0531220374935</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>906.0531220374935</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>853.6814647988001</v>
+        <v>455.4718870526091</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -37801,7 +37803,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>94.85804876853211</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
-        <v>845.2513212958648</v>
+        <v>754.1521052398779</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37871,13 +37873,13 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>83.23994392538575</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,16 +38019,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>69.78487510406583</v>
       </c>
       <c r="L44" t="n">
-        <v>906.0531220374935</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>746.1699590345663</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
@@ -38038,7 +38040,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38098,7 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>177.6283571929503</v>
+        <v>185.2155418451189</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38105,10 +38107,10 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>906.0531220374935</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_38.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3048958.28135834</v>
+        <v>3048261.620153249</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>612367.9462114752</v>
+        <v>612367.946211476</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>231.8635478585618</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
         <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
         <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>59.29122856755413</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
         <v>401.2838973446586</v>
@@ -867,25 +867,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>223.2133170830522</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>156.7874807259534</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>19.05969460684969</v>
+        <v>47.72518289936614</v>
       </c>
       <c r="E5" t="n">
         <v>21.71717045362101</v>
@@ -910,10 +910,10 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>98.65118146889989</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="6">
@@ -1065,16 +1065,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0.3079544622801723</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>123.9086344760402</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
         <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>353.7742984338904</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.283897344658556</v>
+        <v>285.7207459467269</v>
       </c>
     </row>
     <row r="9">
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
@@ -1347,19 +1347,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>169.983518543731</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>58.31517967031814</v>
       </c>
     </row>
     <row r="11">
@@ -1423,10 +1423,10 @@
         <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458126</v>
       </c>
       <c r="U11" t="n">
-        <v>255.771360309553</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>29.80278288466019</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
@@ -1539,13 +1539,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>136.6601511077862</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>98.77088257712678</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
@@ -1593,10 +1593,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868337</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
@@ -1672,7 +1672,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439297</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1776,16 +1776,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>161.6737988100371</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1833,7 +1833,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>110.3032289873175</v>
       </c>
     </row>
     <row r="17">
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>30.42064798737231</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>30.63284416876712</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
@@ -2070,7 +2070,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2137,7 +2137,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
-        <v>255.771360309553</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
@@ -2241,7 +2241,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
@@ -2253,10 +2253,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>120.5907838044901</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>218.0080577057914</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>132.1023254287123</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>38.85700492627392</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
@@ -2544,7 +2544,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2715,22 +2715,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>96.44420510686395</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>144.9327968781083</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>153.7582750847201</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
@@ -2961,10 +2961,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>123.9086344760398</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
@@ -3015,7 +3015,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3189,7 +3189,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
@@ -3201,13 +3201,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>68.22238607350852</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>157.446518360661</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3286,7 +3286,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I35" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T35" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458126</v>
       </c>
       <c r="U35" t="n">
         <v>255.7713603095518</v>
@@ -3438,7 +3438,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
@@ -3477,19 +3477,19 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>228.0996351671496</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>150.2763321761454</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855901</v>
       </c>
       <c r="T38" t="n">
         <v>218.7163152458132</v>
@@ -3571,7 +3571,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446598</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -3663,25 +3663,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3387367898102</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>129.5102430191671</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
@@ -3720,7 +3720,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3729,7 +3729,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3754,7 +3754,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864449</v>
       </c>
       <c r="H41" t="n">
         <v>294.8896947407055</v>
@@ -3900,19 +3900,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>104.931683070052</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>104.5205783485557</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3960,13 +3960,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -3994,7 +3994,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407063</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
         <v>34.5479025439635</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>51.5854374042942</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>49.87597792716577</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>739.5193319569357</v>
+        <v>622.9610551284397</v>
       </c>
       <c r="C2" t="n">
-        <v>505.3137280593985</v>
+        <v>600.1007291821439</v>
       </c>
       <c r="D2" t="n">
-        <v>486.0615112848029</v>
+        <v>580.8485124075482</v>
       </c>
       <c r="E2" t="n">
-        <v>60.08457143266044</v>
+        <v>558.9119765958098</v>
       </c>
       <c r="F2" t="n">
-        <v>39.00079366246474</v>
+        <v>133.7877947852101</v>
       </c>
       <c r="G2" t="n">
-        <v>38.70213529231743</v>
+        <v>133.4891364150627</v>
       </c>
       <c r="H2" t="n">
-        <v>38.70213529231743</v>
+        <v>73.59900654884645</v>
       </c>
       <c r="I2" t="n">
-        <v>38.70213529231743</v>
+        <v>38.70213529231766</v>
       </c>
       <c r="J2" t="n">
-        <v>401.305594109213</v>
+        <v>401.3055941092132</v>
       </c>
       <c r="K2" t="n">
-        <v>880.2445183516411</v>
+        <v>401.3055941092132</v>
       </c>
       <c r="L2" t="n">
-        <v>880.2445183516411</v>
+        <v>401.3055941092132</v>
       </c>
       <c r="M2" t="n">
-        <v>880.2445183516411</v>
+        <v>880.2445183516443</v>
       </c>
       <c r="N2" t="n">
-        <v>1000.08236086926</v>
+        <v>880.2445183516443</v>
       </c>
       <c r="O2" t="n">
-        <v>1000.08236086926</v>
+        <v>1000.082360869269</v>
       </c>
       <c r="P2" t="n">
-        <v>1479.021285111688</v>
+        <v>1479.0212851117</v>
       </c>
       <c r="Q2" t="n">
-        <v>1935.106764615871</v>
+        <v>1935.106764615883</v>
       </c>
       <c r="R2" t="n">
-        <v>1935.106764615871</v>
+        <v>1935.106764615883</v>
       </c>
       <c r="S2" t="n">
-        <v>1830.739470489012</v>
+        <v>1935.106764615883</v>
       </c>
       <c r="T2" t="n">
-        <v>1830.739470489012</v>
+        <v>1714.181193660516</v>
       </c>
       <c r="U2" t="n">
-        <v>1572.384561085424</v>
+        <v>1455.826284256928</v>
       </c>
       <c r="V2" t="n">
-        <v>1572.384561085424</v>
+        <v>1455.826284256928</v>
       </c>
       <c r="W2" t="n">
-        <v>1572.384561085424</v>
+        <v>1455.826284256928</v>
       </c>
       <c r="X2" t="n">
-        <v>1160.664562253171</v>
+        <v>1448.14668946508</v>
       </c>
       <c r="Y2" t="n">
-        <v>755.3272922080617</v>
+        <v>1042.80941941997</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>605.8256263237727</v>
+        <v>605.8256263237729</v>
       </c>
       <c r="C3" t="n">
-        <v>488.3197228412774</v>
+        <v>488.3197228412777</v>
       </c>
       <c r="D3" t="n">
-        <v>384.4797643565624</v>
+        <v>384.4797643565627</v>
       </c>
       <c r="E3" t="n">
-        <v>279.7778306294996</v>
+        <v>279.7778306294999</v>
       </c>
       <c r="F3" t="n">
-        <v>186.1320003124038</v>
+        <v>186.132000312404</v>
       </c>
       <c r="G3" t="n">
-        <v>92.07822853000783</v>
+        <v>92.07822853000806</v>
       </c>
       <c r="H3" t="n">
-        <v>38.70213529231743</v>
+        <v>38.70213529231766</v>
       </c>
       <c r="I3" t="n">
-        <v>38.70213529231743</v>
+        <v>46.1487782542295</v>
       </c>
       <c r="J3" t="n">
-        <v>310.3996245719085</v>
+        <v>317.8462675338206</v>
       </c>
       <c r="K3" t="n">
-        <v>789.3385488143367</v>
+        <v>343.3471304404828</v>
       </c>
       <c r="L3" t="n">
-        <v>789.3385488143367</v>
+        <v>343.3471304404828</v>
       </c>
       <c r="M3" t="n">
-        <v>904.3053647676197</v>
+        <v>822.2860546829138</v>
       </c>
       <c r="N3" t="n">
-        <v>1383.244289010048</v>
+        <v>822.2860546829138</v>
       </c>
       <c r="O3" t="n">
-        <v>1383.244289010048</v>
+        <v>1301.224978925345</v>
       </c>
       <c r="P3" t="n">
-        <v>1383.244289010048</v>
+        <v>1301.224978925345</v>
       </c>
       <c r="Q3" t="n">
-        <v>1847.389765872827</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="R3" t="n">
         <v>1847.389765872827</v>
@@ -4451,10 +4451,10 @@
         <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>874.445524390543</v>
+        <v>874.4455243905433</v>
       </c>
       <c r="Y3" t="n">
-        <v>734.7526357438354</v>
+        <v>734.7526357438356</v>
       </c>
     </row>
     <row r="4">
@@ -4464,73 +4464,73 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1022.11468955683</v>
+        <v>1022.114689556831</v>
       </c>
       <c r="C4" t="n">
-        <v>850.1421264357463</v>
+        <v>850.1421264357465</v>
       </c>
       <c r="D4" t="n">
-        <v>686.825353562517</v>
+        <v>686.8253535625172</v>
       </c>
       <c r="E4" t="n">
-        <v>520.6171477153705</v>
+        <v>520.6171477153707</v>
       </c>
       <c r="F4" t="n">
-        <v>348.7553734899309</v>
+        <v>348.7553734899311</v>
       </c>
       <c r="G4" t="n">
-        <v>182.498403784163</v>
+        <v>182.4984037841633</v>
       </c>
       <c r="H4" t="n">
-        <v>38.70213529231743</v>
+        <v>38.70213529231766</v>
       </c>
       <c r="I4" t="n">
-        <v>38.70213529231743</v>
+        <v>38.70213529231766</v>
       </c>
       <c r="J4" t="n">
-        <v>96.19346351647545</v>
+        <v>96.19346351647567</v>
       </c>
       <c r="K4" t="n">
-        <v>322.7210647223126</v>
+        <v>322.7210647223129</v>
       </c>
       <c r="L4" t="n">
-        <v>677.4103860167334</v>
+        <v>393.4019879271702</v>
       </c>
       <c r="M4" t="n">
-        <v>1068.596180986984</v>
+        <v>784.587782897421</v>
       </c>
       <c r="N4" t="n">
-        <v>1446.08769186302</v>
+        <v>1162.079293773457</v>
       </c>
       <c r="O4" t="n">
-        <v>1801.515820542783</v>
+        <v>1517.50742245322</v>
       </c>
       <c r="P4" t="n">
-        <v>1808.106634375109</v>
+        <v>1808.106634375121</v>
       </c>
       <c r="Q4" t="n">
-        <v>1935.106764615871</v>
+        <v>1935.106764615883</v>
       </c>
       <c r="R4" t="n">
-        <v>1888.068151303045</v>
+        <v>1888.068151303056</v>
       </c>
       <c r="S4" t="n">
-        <v>1717.93310382218</v>
+        <v>1888.068151303056</v>
       </c>
       <c r="T4" t="n">
-        <v>1717.93310382218</v>
+        <v>1888.068151303056</v>
       </c>
       <c r="U4" t="n">
-        <v>1437.748655322484</v>
+        <v>1888.068151303056</v>
       </c>
       <c r="V4" t="n">
-        <v>1212.280658268896</v>
+        <v>1888.068151303056</v>
       </c>
       <c r="W4" t="n">
-        <v>1212.280658268896</v>
+        <v>1613.215747475569</v>
       </c>
       <c r="X4" t="n">
-        <v>1212.280658268896</v>
+        <v>1370.651850921374</v>
       </c>
       <c r="Y4" t="n">
         <v>1212.280658268896</v>
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1235.878926328994</v>
+        <v>158.88477840153</v>
       </c>
       <c r="C5" t="n">
-        <v>808.9781963422939</v>
+        <v>136.0244524552341</v>
       </c>
       <c r="D5" t="n">
-        <v>789.7259795676982</v>
+        <v>87.81719700132894</v>
       </c>
       <c r="E5" t="n">
-        <v>767.7894437559598</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F5" t="n">
-        <v>746.7056659857641</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G5" t="n">
-        <v>342.3666035752127</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
         <v>44.49822504924753</v>
@@ -4573,46 +4573,46 @@
         <v>44.49822504924753</v>
       </c>
       <c r="L5" t="n">
+        <v>44.49822504924753</v>
+      </c>
+      <c r="M5" t="n">
         <v>595.1637600336857</v>
       </c>
-      <c r="M5" t="n">
-        <v>1145.829295018124</v>
-      </c>
       <c r="N5" t="n">
-        <v>1674.245717477938</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O5" t="n">
-        <v>2224.911252462377</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P5" t="n">
-        <v>2224.911252462377</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>2120.543958335517</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U5" t="n">
-        <v>2120.543958335517</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V5" t="n">
-        <v>1763.054543461766</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="W5" t="n">
-        <v>1763.054543461766</v>
+        <v>991.7500075300184</v>
       </c>
       <c r="X5" t="n">
-        <v>1351.334544629514</v>
+        <v>580.0300086977657</v>
       </c>
       <c r="Y5" t="n">
-        <v>1251.68688658012</v>
+        <v>578.73314269306</v>
       </c>
     </row>
     <row r="6">
@@ -4643,31 +4643,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>201.1892506764427</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>201.1892506764427</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L6" t="n">
-        <v>751.8547856608809</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="M6" t="n">
-        <v>751.8547856608809</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="N6" t="n">
-        <v>1302.520320645319</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="O6" t="n">
-        <v>1302.520320645319</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P6" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>955.8175733480448</v>
+        <v>884.1145108219148</v>
       </c>
       <c r="C7" t="n">
-        <v>783.8450102269608</v>
+        <v>712.1419477008308</v>
       </c>
       <c r="D7" t="n">
-        <v>620.5282373537315</v>
+        <v>548.8251748276015</v>
       </c>
       <c r="E7" t="n">
-        <v>454.3200315065851</v>
+        <v>382.616968980455</v>
       </c>
       <c r="F7" t="n">
-        <v>454.3200315065851</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="G7" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H7" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
@@ -4743,34 +4743,34 @@
         <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
+        <v>2224.911252462376</v>
+      </c>
+      <c r="R7" t="n">
         <v>2224.911252462377</v>
       </c>
-      <c r="R7" t="n">
-        <v>2177.87263914955</v>
-      </c>
       <c r="S7" t="n">
-        <v>2177.561574036135</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T7" t="n">
-        <v>1934.222226262035</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U7" t="n">
-        <v>1654.03777776234</v>
+        <v>2099.751015617891</v>
       </c>
       <c r="V7" t="n">
-        <v>1372.326310370368</v>
+        <v>1818.03954822592</v>
       </c>
       <c r="W7" t="n">
-        <v>1372.326310370368</v>
+        <v>1543.187144398433</v>
       </c>
       <c r="X7" t="n">
-        <v>1372.326310370368</v>
+        <v>1300.623247844238</v>
       </c>
       <c r="Y7" t="n">
-        <v>1145.98354206011</v>
+        <v>1074.28047953398</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1746.091355883837</v>
+        <v>129.9297397222204</v>
       </c>
       <c r="C8" t="n">
-        <v>1319.190625897137</v>
+        <v>107.0694137759246</v>
       </c>
       <c r="D8" t="n">
-        <v>895.898005082137</v>
+        <v>87.81719700132894</v>
       </c>
       <c r="E8" t="n">
-        <v>469.9210652299946</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F8" t="n">
-        <v>448.8372874597989</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G8" t="n">
         <v>44.49822504924753</v>
@@ -4813,43 +4813,43 @@
         <v>1508.432753835019</v>
       </c>
       <c r="M8" t="n">
-        <v>1508.432753835019</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="N8" t="n">
-        <v>2059.098288819458</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="O8" t="n">
-        <v>2059.098288819458</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="P8" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q8" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>2120.543958335517</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U8" t="n">
-        <v>2120.543958335517</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="V8" t="n">
-        <v>2120.543958335517</v>
+        <v>1646.496266633259</v>
       </c>
       <c r="W8" t="n">
-        <v>2120.543958335517</v>
+        <v>1250.104916933606</v>
       </c>
       <c r="X8" t="n">
-        <v>1763.196182139668</v>
+        <v>838.3849181013534</v>
       </c>
       <c r="Y8" t="n">
-        <v>1761.899316134962</v>
+        <v>549.7781040137504</v>
       </c>
     </row>
     <row r="9">
@@ -4883,28 +4883,28 @@
         <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>51.94486801115937</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>51.94486801115937</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="L9" t="n">
-        <v>51.94486801115937</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="M9" t="n">
-        <v>119.1699405917395</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="N9" t="n">
-        <v>669.8354755761777</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="O9" t="n">
-        <v>1220.501010560616</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="P9" t="n">
-        <v>1771.166545545054</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q9" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1127.679347573484</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="C10" t="n">
-        <v>955.7067844524004</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="D10" t="n">
-        <v>792.3900115791711</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="E10" t="n">
         <v>626.1818057320246</v>
@@ -4995,19 +4995,19 @@
         <v>1764.398243894584</v>
       </c>
       <c r="U10" t="n">
-        <v>1764.398243894584</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V10" t="n">
-        <v>1592.697720113037</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W10" t="n">
-        <v>1317.84531628555</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X10" t="n">
-        <v>1317.84531628555</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y10" t="n">
-        <v>1317.84531628555</v>
+        <v>626.1818057320246</v>
       </c>
     </row>
     <row r="11">
@@ -5032,7 +5032,7 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H11" t="n">
         <v>137.1995846623573</v>
@@ -5041,7 +5041,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K11" t="n">
         <v>1180.414480198223</v>
@@ -5050,28 +5050,28 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>2988.069926596602</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N11" t="n">
-        <v>2988.069926596602</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O11" t="n">
-        <v>3833.214576747414</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P11" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="Q11" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="R11" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S11" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T11" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U11" t="n">
         <v>4531.487895805612</v>
@@ -5111,37 +5111,37 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H12" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="J12" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="K12" t="n">
-        <v>102.3027134058285</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="L12" t="n">
-        <v>939.1015214887346</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="M12" t="n">
-        <v>1021.509065974867</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="N12" t="n">
-        <v>1021.509065974867</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="O12" t="n">
-        <v>1910.990343986338</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="P12" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q12" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R12" t="n">
         <v>1910.990343986338</v>
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>985.454412532011</v>
+        <v>703.6175873656337</v>
       </c>
       <c r="C13" t="n">
-        <v>813.481849410927</v>
+        <v>531.6450242445496</v>
       </c>
       <c r="D13" t="n">
-        <v>650.1650765376977</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="E13" t="n">
-        <v>650.1650765376977</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="F13" t="n">
-        <v>512.1245198631661</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G13" t="n">
-        <v>345.8675501573982</v>
+        <v>202.0712816655525</v>
       </c>
       <c r="H13" t="n">
-        <v>202.0712816655526</v>
+        <v>202.0712816655525</v>
       </c>
       <c r="I13" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K13" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L13" t="n">
         <v>741.0109641302445</v>
@@ -5223,28 +5223,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S13" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T13" t="n">
-        <v>1822.202732251165</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U13" t="n">
-        <v>1542.018283751469</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V13" t="n">
-        <v>1260.306816359498</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W13" t="n">
-        <v>985.454412532011</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X13" t="n">
-        <v>985.454412532011</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y13" t="n">
-        <v>985.454412532011</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C14" t="n">
         <v>2113.800768076616</v>
@@ -5269,7 +5269,7 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G14" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H14" t="n">
         <v>137.1995846623573</v>
@@ -5278,7 +5278,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K14" t="n">
         <v>1180.414480198223</v>
@@ -5287,43 +5287,43 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>3114.325629236558</v>
+        <v>2129.375202991801</v>
       </c>
       <c r="N14" t="n">
-        <v>4090.576687723259</v>
+        <v>3105.626261478502</v>
       </c>
       <c r="O14" t="n">
-        <v>4090.576687723259</v>
+        <v>3950.770911629314</v>
       </c>
       <c r="P14" t="n">
-        <v>4798.855966881186</v>
+        <v>4659.050190787242</v>
       </c>
       <c r="Q14" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="R14" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S14" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T14" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U14" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V14" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X14" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y14" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5348,34 +5348,34 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H15" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="J15" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="K15" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="L15" t="n">
-        <v>939.1015214887346</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="M15" t="n">
-        <v>1194.79262694784</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="N15" t="n">
-        <v>1194.79262694784</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O15" t="n">
-        <v>1194.79262694784</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P15" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q15" t="n">
         <v>1910.990343986338</v>
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1185.483835930065</v>
+        <v>770.0572249530561</v>
       </c>
       <c r="C16" t="n">
-        <v>1013.511272808982</v>
+        <v>598.0846618319721</v>
       </c>
       <c r="D16" t="n">
-        <v>850.1944999357522</v>
+        <v>434.7678889587428</v>
       </c>
       <c r="E16" t="n">
-        <v>683.9862940886057</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="F16" t="n">
-        <v>512.1245198631661</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G16" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H16" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I16" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K16" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L16" t="n">
         <v>741.0109641302445</v>
@@ -5463,25 +5463,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T16" t="n">
-        <v>2282.715740818957</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U16" t="n">
-        <v>2282.715740818957</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V16" t="n">
-        <v>2119.408873334071</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="W16" t="n">
-        <v>1844.556469506584</v>
+        <v>1314.204493236809</v>
       </c>
       <c r="X16" t="n">
-        <v>1601.992572952389</v>
+        <v>1071.640596682614</v>
       </c>
       <c r="Y16" t="n">
-        <v>1375.649804642131</v>
+        <v>960.2231936651217</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C17" t="n">
         <v>2113.800768076616</v>
@@ -5506,7 +5506,7 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H17" t="n">
         <v>137.1995846623573</v>
@@ -5515,7 +5515,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K17" t="n">
         <v>1180.414480198223</v>
@@ -5530,37 +5530,37 @@
         <v>4090.576687723259</v>
       </c>
       <c r="O17" t="n">
-        <v>4406.8563911335</v>
+        <v>4541.49385590534</v>
       </c>
       <c r="P17" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.49385590534</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409523</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354845</v>
       </c>
     </row>
     <row r="18">
@@ -5585,37 +5585,37 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G18" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H18" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M18" t="n">
-        <v>1112.773316863137</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N18" t="n">
-        <v>1112.773316863137</v>
+        <v>1470.761792120201</v>
       </c>
       <c r="O18" t="n">
-        <v>1112.773316863137</v>
+        <v>1470.761792120201</v>
       </c>
       <c r="P18" t="n">
-        <v>1828.971033901635</v>
+        <v>1470.761792120201</v>
       </c>
       <c r="Q18" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>742.8905159778161</v>
+        <v>575.6239606180499</v>
       </c>
       <c r="C19" t="n">
-        <v>570.9179528567321</v>
+        <v>575.6239606180499</v>
       </c>
       <c r="D19" t="n">
-        <v>570.9179528567321</v>
+        <v>412.3071877448206</v>
       </c>
       <c r="E19" t="n">
-        <v>570.9179528567321</v>
+        <v>246.0989818976741</v>
       </c>
       <c r="F19" t="n">
-        <v>399.0561786312925</v>
+        <v>246.0989818976741</v>
       </c>
       <c r="G19" t="n">
-        <v>232.7992089255246</v>
+        <v>246.0989818976741</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5706,19 +5706,19 @@
         <v>1822.202732251165</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.018283751469</v>
+        <v>1791.260465414026</v>
       </c>
       <c r="V19" t="n">
-        <v>1260.306816359498</v>
+        <v>1509.548998022055</v>
       </c>
       <c r="W19" t="n">
-        <v>985.454412532011</v>
+        <v>1234.696594194568</v>
       </c>
       <c r="X19" t="n">
-        <v>742.8905159778161</v>
+        <v>992.1326976403734</v>
       </c>
       <c r="Y19" t="n">
-        <v>742.8905159778161</v>
+        <v>765.7899293301155</v>
       </c>
     </row>
     <row r="20">
@@ -5734,16 +5734,16 @@
         <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E20" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988743</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883229</v>
       </c>
       <c r="H20" t="n">
         <v>137.1995846623573</v>
@@ -5752,7 +5752,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K20" t="n">
         <v>1180.414480198223</v>
@@ -5764,19 +5764,19 @@
         <v>3114.325629236558</v>
       </c>
       <c r="N20" t="n">
-        <v>3444.155406100785</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O20" t="n">
-        <v>4289.300056251597</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P20" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S20" t="n">
         <v>5010.768376164568</v>
@@ -5788,13 +5788,13 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
         <v>2960.549862354846</v>
@@ -5828,28 +5828,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>374.0002026854196</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K21" t="n">
-        <v>374.0002026854196</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L21" t="n">
-        <v>374.0002026854196</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M21" t="n">
-        <v>739.6560874287652</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="N21" t="n">
-        <v>1828.971033901635</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="O21" t="n">
-        <v>1828.971033901635</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P21" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q21" t="n">
         <v>1828.971033901635</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4017.903765402532</v>
+        <v>703.4580346113679</v>
       </c>
       <c r="C22" t="n">
-        <v>3845.931202281448</v>
+        <v>703.4580346113679</v>
       </c>
       <c r="D22" t="n">
-        <v>3682.614429408219</v>
+        <v>540.1412617381386</v>
       </c>
       <c r="E22" t="n">
-        <v>3516.406223561072</v>
+        <v>373.9330558909921</v>
       </c>
       <c r="F22" t="n">
-        <v>3344.544449335633</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G22" t="n">
-        <v>3178.287479629865</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H22" t="n">
-        <v>3034.491211138019</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I22" t="n">
-        <v>2934.722642878295</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>2992.213971102453</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K22" t="n">
-        <v>3218.74157230829</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L22" t="n">
-        <v>3573.430893602711</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>3964.616688572962</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>4342.108199448998</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>4697.536328128761</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>4897.962009497735</v>
+        <v>2160.906868289169</v>
       </c>
       <c r="T22" t="n">
-        <v>4654.622661723635</v>
+        <v>1917.567520515069</v>
       </c>
       <c r="U22" t="n">
-        <v>4654.622661723635</v>
+        <v>1637.383072015373</v>
       </c>
       <c r="V22" t="n">
-        <v>4654.622661723635</v>
+        <v>1637.383072015373</v>
       </c>
       <c r="W22" t="n">
-        <v>4654.622661723635</v>
+        <v>1362.530668187886</v>
       </c>
       <c r="X22" t="n">
-        <v>4434.412502424856</v>
+        <v>1119.966771633691</v>
       </c>
       <c r="Y22" t="n">
-        <v>4208.069734114598</v>
+        <v>893.6240033234335</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P23" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6077,19 +6077,19 @@
         <v>109.7493563677404</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>742.8905159778161</v>
+        <v>786.8947875232845</v>
       </c>
       <c r="C25" t="n">
-        <v>570.9179528567321</v>
+        <v>614.9222244022005</v>
       </c>
       <c r="D25" t="n">
-        <v>407.6011799835028</v>
+        <v>451.6054515289712</v>
       </c>
       <c r="E25" t="n">
-        <v>407.6011799835028</v>
+        <v>451.6054515289712</v>
       </c>
       <c r="F25" t="n">
-        <v>235.7394057580632</v>
+        <v>451.6054515289712</v>
       </c>
       <c r="G25" t="n">
-        <v>235.7394057580632</v>
+        <v>285.3484818232034</v>
       </c>
       <c r="H25" t="n">
-        <v>102.3027134058285</v>
+        <v>141.5522133313578</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6171,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T25" t="n">
-        <v>1822.202732251165</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U25" t="n">
-        <v>1542.018283751469</v>
+        <v>2002.531292319261</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.306816359498</v>
+        <v>1720.81982492729</v>
       </c>
       <c r="W25" t="n">
-        <v>985.454412532011</v>
+        <v>1445.967421099803</v>
       </c>
       <c r="X25" t="n">
-        <v>742.8905159778161</v>
+        <v>1203.403524545608</v>
       </c>
       <c r="Y25" t="n">
-        <v>742.8905159778161</v>
+        <v>977.0607562353503</v>
       </c>
     </row>
     <row r="26">
@@ -6226,19 +6226,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>651.5495334576516</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1581.174581076928</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2585.460682495986</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>3561.711740982687</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O26" t="n">
         <v>4406.8563911335</v>
@@ -6302,31 +6302,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M27" t="n">
-        <v>357.5299206506891</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="N27" t="n">
-        <v>1446.844867123559</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="O27" t="n">
-        <v>1446.844867123559</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P27" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>741.8809303238178</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C28" t="n">
-        <v>741.8809303238178</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D28" t="n">
-        <v>578.5641574505885</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>412.355951603442</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
         <v>102.3027134058285</v>
@@ -6408,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.202732251165</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U28" t="n">
-        <v>1822.202732251165</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V28" t="n">
-        <v>1675.805967727823</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W28" t="n">
-        <v>1400.953563900336</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X28" t="n">
-        <v>1158.389667346141</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y28" t="n">
-        <v>932.0468990358834</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>651.5495334576516</v>
       </c>
       <c r="L29" t="n">
-        <v>1007.532766690843</v>
+        <v>1581.174581076928</v>
       </c>
       <c r="M29" t="n">
-        <v>2011.818868109901</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N29" t="n">
-        <v>2988.069926596602</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O29" t="n">
-        <v>3833.214576747414</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P29" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6539,19 +6539,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>1537.033091018986</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N30" t="n">
         <v>1910.990343986338</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>941.9189991784958</v>
+        <v>603.8002552472883</v>
       </c>
       <c r="C31" t="n">
-        <v>769.9464360574118</v>
+        <v>431.8276921262043</v>
       </c>
       <c r="D31" t="n">
-        <v>606.6296631841825</v>
+        <v>268.510919252975</v>
       </c>
       <c r="E31" t="n">
-        <v>440.421457337036</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F31" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
         <v>102.3027134058285</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>2282.715740818957</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U31" t="n">
-        <v>2157.555503974472</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V31" t="n">
-        <v>1875.844036582501</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W31" t="n">
-        <v>1600.991632755014</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X31" t="n">
-        <v>1358.427736200819</v>
+        <v>985.454412532011</v>
       </c>
       <c r="Y31" t="n">
-        <v>1132.084967890562</v>
+        <v>759.1116442217531</v>
       </c>
     </row>
     <row r="32">
@@ -6709,13 +6709,13 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>3114.325629236558</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N32" t="n">
-        <v>3813.905540636432</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O32" t="n">
-        <v>4659.050190787244</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P32" t="n">
         <v>4659.050190787244</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C33" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D33" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E33" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F33" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G33" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H33" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>3306.448039710919</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>3306.448039710919</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>3306.448039710919</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L33" t="n">
-        <v>3306.448039710919</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M33" t="n">
-        <v>3306.448039710919</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N33" t="n">
-        <v>4225.654392279956</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="O33" t="n">
-        <v>5115.135670291427</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P33" t="n">
-        <v>5115.135670291427</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q33" t="n">
-        <v>5115.135670291427</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S33" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T33" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U33" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V33" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W33" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X33" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y33" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3676.99346002955</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="C34" t="n">
-        <v>3505.020896908466</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D34" t="n">
-        <v>3341.704124035237</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E34" t="n">
-        <v>3175.49591818809</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F34" t="n">
-        <v>3003.634143962651</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G34" t="n">
-        <v>3003.634143962651</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H34" t="n">
-        <v>2934.722642878299</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M34" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N34" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O34" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P34" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>4897.962009497735</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T34" t="n">
-        <v>4897.962009497735</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U34" t="n">
-        <v>4617.77756099804</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V34" t="n">
-        <v>4336.066093606069</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="W34" t="n">
-        <v>4336.066093606069</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="X34" t="n">
-        <v>4093.502197051874</v>
+        <v>1430.020009831305</v>
       </c>
       <c r="Y34" t="n">
-        <v>3867.159428741616</v>
+        <v>1203.677241521047</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D35" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E35" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2011.818868109901</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N35" t="n">
-        <v>2988.069926596602</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O35" t="n">
-        <v>3833.214576747414</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P35" t="n">
-        <v>4541.493855905342</v>
+        <v>4997.579335409523</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409523</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y35" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="36">
@@ -7007,37 +7007,37 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G36" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H36" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>109.7493563677404</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="J36" t="n">
-        <v>109.7493563677404</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>109.7493563677404</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L36" t="n">
-        <v>109.7493563677404</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M36" t="n">
-        <v>821.6753975134684</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1185.483835930065</v>
+        <v>1019.226866224298</v>
       </c>
       <c r="C37" t="n">
-        <v>1013.511272808982</v>
+        <v>847.2543031032135</v>
       </c>
       <c r="D37" t="n">
-        <v>850.1944999357522</v>
+        <v>683.9375302299842</v>
       </c>
       <c r="E37" t="n">
-        <v>683.9862940886057</v>
+        <v>517.7293243828377</v>
       </c>
       <c r="F37" t="n">
-        <v>512.1245198631661</v>
+        <v>345.8675501573981</v>
       </c>
       <c r="G37" t="n">
-        <v>345.8675501573982</v>
+        <v>345.8675501573981</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>202.0712816655525</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
       </c>
       <c r="M37" t="n">
-        <v>1132.196759100498</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N37" t="n">
-        <v>1509.688269976534</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O37" t="n">
-        <v>1865.116398656297</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P37" t="n">
-        <v>2155.715610578198</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q37" t="n">
-        <v>2282.71574081896</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2282.71574081896</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2112.580693338095</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T37" t="n">
-        <v>2112.580693338095</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U37" t="n">
-        <v>1832.396244838399</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="V37" t="n">
-        <v>1601.992572952389</v>
+        <v>1587.529878172021</v>
       </c>
       <c r="W37" t="n">
-        <v>1601.992572952389</v>
+        <v>1587.529878172021</v>
       </c>
       <c r="X37" t="n">
-        <v>1601.992572952389</v>
+        <v>1435.735603246621</v>
       </c>
       <c r="Y37" t="n">
-        <v>1375.649804642131</v>
+        <v>1209.392834936363</v>
       </c>
     </row>
     <row r="38">
@@ -7165,7 +7165,7 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H38" t="n">
         <v>137.1995846623573</v>
@@ -7174,49 +7174,49 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2011.818868109901</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N38" t="n">
-        <v>2988.069926596602</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747414</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.493855905342</v>
+        <v>4997.579335409523</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409523</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y38" t="n">
         <v>2960.549862354846</v>
@@ -7244,37 +7244,37 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G39" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H39" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>109.7493563677404</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="J39" t="n">
-        <v>109.7493563677404</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="K39" t="n">
-        <v>109.7493563677404</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="L39" t="n">
-        <v>109.7493563677404</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="M39" t="n">
-        <v>821.6753975134684</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="N39" t="n">
-        <v>1910.990343986338</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3375.975369221655</v>
+        <v>834.4360146577217</v>
       </c>
       <c r="C40" t="n">
-        <v>3375.975369221655</v>
+        <v>662.4634515366376</v>
       </c>
       <c r="D40" t="n">
-        <v>3250.380685595584</v>
+        <v>499.1466786634084</v>
       </c>
       <c r="E40" t="n">
-        <v>3250.380685595584</v>
+        <v>499.1466786634084</v>
       </c>
       <c r="F40" t="n">
-        <v>3078.518911370144</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G40" t="n">
-        <v>3078.518911370144</v>
+        <v>202.0712816655525</v>
       </c>
       <c r="H40" t="n">
-        <v>2934.722642878299</v>
+        <v>202.0712816655525</v>
       </c>
       <c r="I40" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K40" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L40" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M40" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N40" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O40" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P40" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q40" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>5115.135670291427</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S40" t="n">
-        <v>5115.135670291427</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T40" t="n">
-        <v>4871.796322517327</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U40" t="n">
-        <v>4591.611874017632</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V40" t="n">
-        <v>4309.90040662566</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="W40" t="n">
-        <v>4035.048002798173</v>
+        <v>1267.165879923982</v>
       </c>
       <c r="X40" t="n">
-        <v>3792.484106243979</v>
+        <v>1024.601983369787</v>
       </c>
       <c r="Y40" t="n">
-        <v>3566.14133793372</v>
+        <v>1024.601983369787</v>
       </c>
     </row>
     <row r="41">
@@ -7393,70 +7393,70 @@
         <v>2113.800768076615</v>
       </c>
       <c r="D41" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261615</v>
       </c>
       <c r="E41" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409473</v>
       </c>
       <c r="F41" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988729</v>
       </c>
       <c r="G41" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H41" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I41" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K41" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>2110.0395278175</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M41" t="n">
-        <v>3114.325629236558</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N41" t="n">
-        <v>4090.576687723259</v>
+        <v>3160.951640103982</v>
       </c>
       <c r="O41" t="n">
-        <v>4541.493855905342</v>
+        <v>4006.096290254794</v>
       </c>
       <c r="P41" t="n">
-        <v>4541.493855905342</v>
+        <v>4714.375569412722</v>
       </c>
       <c r="Q41" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409523</v>
       </c>
       <c r="R41" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S41" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T41" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U41" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V41" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W41" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X41" t="n">
         <v>3365.887132399955</v>
       </c>
       <c r="Y41" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354845</v>
       </c>
     </row>
     <row r="42">
@@ -7481,34 +7481,34 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H42" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>109.7493563677404</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="J42" t="n">
-        <v>109.7493563677404</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K42" t="n">
-        <v>700.2342829360799</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L42" t="n">
-        <v>1446.844867123559</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="M42" t="n">
-        <v>1446.844867123559</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N42" t="n">
-        <v>1446.844867123559</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O42" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P42" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q42" t="n">
         <v>1910.990343986338</v>
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>789.9291292906429</v>
+        <v>855.9588572096895</v>
       </c>
       <c r="C43" t="n">
-        <v>789.9291292906429</v>
+        <v>683.9862940886055</v>
       </c>
       <c r="D43" t="n">
-        <v>683.9375302299843</v>
+        <v>683.9862940886055</v>
       </c>
       <c r="E43" t="n">
-        <v>517.7293243828378</v>
+        <v>683.9862940886055</v>
       </c>
       <c r="F43" t="n">
-        <v>345.8675501573982</v>
+        <v>512.1245198631659</v>
       </c>
       <c r="G43" t="n">
-        <v>345.8675501573982</v>
+        <v>345.8675501573981</v>
       </c>
       <c r="H43" t="n">
-        <v>202.0712816655526</v>
+        <v>202.0712816655525</v>
       </c>
       <c r="I43" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K43" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L43" t="n">
         <v>741.0109641302445</v>
@@ -7584,37 +7584,37 @@
         <v>1509.688269976531</v>
       </c>
       <c r="O43" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656291</v>
       </c>
       <c r="P43" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578192</v>
       </c>
       <c r="Q43" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818954</v>
       </c>
       <c r="R43" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.677127506127</v>
       </c>
       <c r="S43" t="n">
-        <v>2112.580693338092</v>
+        <v>2130.100785739909</v>
       </c>
       <c r="T43" t="n">
-        <v>1869.241345563992</v>
+        <v>1886.761437965809</v>
       </c>
       <c r="U43" t="n">
-        <v>1589.056897064296</v>
+        <v>1606.576989466113</v>
       </c>
       <c r="V43" t="n">
-        <v>1307.345429672325</v>
+        <v>1324.865522074142</v>
       </c>
       <c r="W43" t="n">
-        <v>1032.493025844838</v>
+        <v>1324.865522074142</v>
       </c>
       <c r="X43" t="n">
-        <v>789.9291292906429</v>
+        <v>1082.301625519947</v>
       </c>
       <c r="Y43" t="n">
-        <v>789.9291292906429</v>
+        <v>855.9588572096895</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C44" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G44" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H44" t="n">
         <v>137.1995846623573</v>
@@ -7648,52 +7648,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K44" t="n">
-        <v>533.9931985757493</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>1463.618246195026</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>2467.904347614084</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N44" t="n">
-        <v>3444.155406100785</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O44" t="n">
-        <v>4289.300056251597</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="P44" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.49385590534</v>
       </c>
       <c r="Q44" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409523</v>
       </c>
       <c r="R44" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S44" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T44" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U44" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V44" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W44" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X44" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y44" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7718,28 +7718,28 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H45" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="J45" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K45" t="n">
-        <v>557.3635891120873</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L45" t="n">
-        <v>557.3635891120873</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="M45" t="n">
-        <v>557.3635891120873</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="N45" t="n">
-        <v>557.3635891120873</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O45" t="n">
         <v>1446.844867123559</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>446.1370507523521</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C46" t="n">
-        <v>274.1644876312681</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D46" t="n">
-        <v>274.1644876312681</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="E46" t="n">
-        <v>274.1644876312681</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="F46" t="n">
         <v>102.3027134058285</v>
@@ -7806,10 +7806,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K46" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L46" t="n">
         <v>741.0109641302445</v>
@@ -7833,25 +7833,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S46" t="n">
-        <v>2185.297351822124</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T46" t="n">
-        <v>1941.958004048024</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U46" t="n">
-        <v>1661.773555548329</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V46" t="n">
-        <v>1380.062088156358</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W46" t="n">
-        <v>1105.20968432887</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X46" t="n">
-        <v>862.6457877746757</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y46" t="n">
-        <v>636.3030194644177</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>519.5412919487773</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>521.2079540534025</v>
       </c>
       <c r="N2" t="n">
-        <v>158.327948609819</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>158.4392851314024</v>
       </c>
       <c r="P2" t="n">
-        <v>521.3520529641992</v>
+        <v>521.352052964202</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
@@ -8054,25 +8054,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>506.1759249873012</v>
+        <v>48.15768121380019</v>
       </c>
       <c r="L3" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>139.2248774348361</v>
+        <v>506.8734716662987</v>
       </c>
       <c r="N3" t="n">
-        <v>505.1197193675096</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>506.9485808761929</v>
       </c>
       <c r="P3" t="n">
         <v>21.77084120482866</v>
@@ -8081,7 +8081,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8142,7 +8142,7 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
-        <v>380.1908016072373</v>
+        <v>93.31363181979953</v>
       </c>
       <c r="M4" t="n">
         <v>417.7126065281028</v>
@@ -8154,7 +8154,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>29.03818836740729</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
         <v>152.9025226039384</v>
@@ -8221,25 +8221,25 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
         <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
-        <v>571.0335849150666</v>
+        <v>547.8252218830994</v>
       </c>
       <c r="O5" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,22 +8291,22 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>178.8848775931265</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>578.7428998298237</v>
+        <v>459.5991032870438</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
         <v>23.17188972222222</v>
@@ -8315,10 +8315,10 @@
         <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8391,7 +8391,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P7" t="n">
-        <v>315.915358154857</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
         <v>152.9025226039384</v>
@@ -8461,7 +8461,7 @@
         <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>86.17533235500369</v>
       </c>
       <c r="N8" t="n">
         <v>593.5074359500402</v>
@@ -8470,13 +8470,13 @@
         <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>205.0632038737858</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,31 +8531,31 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>542.3310383704943</v>
       </c>
       <c r="L9" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>91.00089423008572</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
         <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8698,22 +8698,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>924.3306556055956</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602115997</v>
       </c>
       <c r="Q11" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,34 +8765,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>106.3367244377138</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>693.0751584803598</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8935,22 +8935,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>1051.861668373228</v>
+        <v>56.96224792397903</v>
       </c>
       <c r="N14" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>236.8553498857486</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
         <v>20.61111433333334</v>
@@ -9014,7 +9014,7 @@
         <v>867.7664080100944</v>
       </c>
       <c r="M15" t="n">
-        <v>281.3706244104145</v>
+        <v>528.4469852324416</v>
       </c>
       <c r="N15" t="n">
         <v>21.34302821354166</v>
@@ -9023,10 +9023,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9178,16 +9178,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
-        <v>356.8654072451563</v>
+        <v>492.8628464086314</v>
       </c>
       <c r="P17" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
         <v>22.39923383333334</v>
@@ -9251,22 +9251,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>1043.774157741933</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>467.4223432042684</v>
       </c>
       <c r="R18" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9412,16 +9412,16 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N20" t="n">
-        <v>370.4410136063929</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
-        <v>891.0724241548241</v>
+        <v>763.5414113871911</v>
       </c>
       <c r="P20" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
         <v>22.39923383333334</v>
@@ -9488,19 +9488,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>392.4461590409599</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>567.4935903612297</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
         <v>106.5207073584907</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9646,7 +9646,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>517.6546514635598</v>
       </c>
       <c r="N23" t="n">
         <v>1023.391803124043</v>
@@ -9655,13 +9655,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9725,22 +9725,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>742.2139937908412</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>567.4935903612297</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>590.5593685239236</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
         <v>977.3272420480539</v>
@@ -9889,7 +9889,7 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
-        <v>891.0724241548241</v>
+        <v>356.8654072451563</v>
       </c>
       <c r="P26" t="n">
         <v>753.0089771212694</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
         <v>20.61111433333334</v>
@@ -9962,22 +9962,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>280.9020403556215</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>567.4935903612297</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>758.5002654165255</v>
+        <v>224.2932485068573</v>
       </c>
       <c r="L29" t="n">
-        <v>229.9501690078907</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
         <v>1051.861668373228</v>
@@ -10132,10 +10132,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,22 +10187,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>400.8313794692496</v>
       </c>
       <c r="N30" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10357,16 +10357,16 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>56.96224792398087</v>
       </c>
       <c r="N32" t="n">
-        <v>743.9259979858341</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
         <v>496.8170781441769</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
         <v>22.39923383333334</v>
@@ -10439,19 +10439,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>949.834293434791</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>921.6378271075471</v>
+        <v>293.0516819980064</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10594,7 +10594,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>304.4845953330648</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N35" t="n">
         <v>1023.391803124043</v>
@@ -10603,10 +10603,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>753.0089771212694</v>
+        <v>100.0581876036175</v>
       </c>
       <c r="Q35" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
         <v>153.7764225027789</v>
@@ -10664,7 +10664,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
         <v>22.39923383333334</v>
@@ -10673,22 +10673,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>742.2139937908412</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>293.0516819980064</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10831,7 +10831,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>304.4845953330648</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
         <v>1023.391803124043</v>
@@ -10840,10 +10840,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>753.0089771212694</v>
+        <v>100.0581876036175</v>
       </c>
       <c r="Q38" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R38" t="n">
         <v>153.7764225027789</v>
@@ -10910,22 +10910,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>742.2139937908412</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>567.4935903612297</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11065,7 +11065,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M41" t="n">
         <v>1051.861668373228</v>
@@ -11074,13 +11074,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>492.8628464086332</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>322.1890847023768</v>
       </c>
       <c r="R41" t="n">
         <v>153.7764225027789</v>
@@ -11138,13 +11138,13 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>776.6671919541075</v>
+        <v>72.59316121846759</v>
       </c>
       <c r="M42" t="n">
         <v>23.09678051232798</v>
@@ -11153,13 +11153,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11299,7 +11299,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>105.5494758988752</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
         <v>977.3272420480539</v>
@@ -11311,13 +11311,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P44" t="n">
-        <v>753.0089771212694</v>
+        <v>493.0472488628386</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
         <v>153.7764225027789</v>
@@ -11372,16 +11372,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>207.6147756784522</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>502.225283590884</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
@@ -11390,7 +11390,7 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
         <v>21.77084120482866</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>158.4615261402848</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23427,13 +23427,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>33.48300537539896</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,16 +23703,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>117.2205539080143</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>113.7761116398379</v>
       </c>
     </row>
     <row r="17">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>111.9376578195548</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>246.7497598459316</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24141,10 +24141,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>47.84291320156638</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>22.13019988286152</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>10.25598037821484</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>59.91387765085286</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>65.23940003763305</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
         <v>98.77088257712678</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>133.9615558399431</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>34.50603394022488</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24849,10 +24849,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>153.473969538659</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>74.13591973341863</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>82.69173922799192</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25365,19 +25365,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>50.79471755090174</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>89.86192541250756</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>37.34486835468677</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>40.63291346401812</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -25788,19 +25788,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>56.75192207444501</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>63.91311865750082</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26034,7 +26034,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>118.557719078891</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>118.5577190788907</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>449624.3225099577</v>
+        <v>449624.3225099579</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>449624.3225099578</v>
+        <v>449624.3225099579</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>449624.3225099577</v>
+        <v>449624.3225099579</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>449624.3225099577</v>
+        <v>449624.3225099578</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>449624.3225099579</v>
+        <v>449624.3225099578</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>449624.3225099578</v>
+        <v>449624.3225099579</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>449624.3225099579</v>
+        <v>449624.3225099578</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>449624.3225099579</v>
+        <v>449624.3225099578</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>449624.3225099578</v>
+        <v>449624.3225099577</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>449624.3225099578</v>
+        <v>449624.3225099577</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>553320.5346106051</v>
+        <v>553320.5346106049</v>
       </c>
       <c r="C2" t="n">
-        <v>553320.5346106048</v>
+        <v>553320.534610605</v>
       </c>
       <c r="D2" t="n">
         <v>553320.5346106051</v>
@@ -26325,37 +26325,37 @@
         <v>533928.8829805749</v>
       </c>
       <c r="F2" t="n">
+        <v>533928.8829805745</v>
+      </c>
+      <c r="G2" t="n">
+        <v>533928.8829805749</v>
+      </c>
+      <c r="H2" t="n">
+        <v>533928.8829805746</v>
+      </c>
+      <c r="I2" t="n">
         <v>533928.8829805747</v>
       </c>
-      <c r="G2" t="n">
-        <v>533928.8829805746</v>
-      </c>
-      <c r="H2" t="n">
-        <v>533928.8829805747</v>
-      </c>
-      <c r="I2" t="n">
-        <v>533928.8829805749</v>
-      </c>
       <c r="J2" t="n">
-        <v>533928.8829805747</v>
+        <v>533928.8829805745</v>
       </c>
       <c r="K2" t="n">
         <v>533928.8829805745</v>
       </c>
       <c r="L2" t="n">
-        <v>533928.8829805751</v>
+        <v>533928.8829805749</v>
       </c>
       <c r="M2" t="n">
-        <v>533928.8829805749</v>
+        <v>533928.8829805747</v>
       </c>
       <c r="N2" t="n">
-        <v>533928.8829805749</v>
+        <v>533928.8829805747</v>
       </c>
       <c r="O2" t="n">
-        <v>533928.8829805744</v>
+        <v>533928.8829805745</v>
       </c>
       <c r="P2" t="n">
-        <v>533928.8829805746</v>
+        <v>533928.882980575</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162124.6960695912</v>
+        <v>162124.6960695921</v>
       </c>
       <c r="C3" t="n">
-        <v>23406.83367361226</v>
+        <v>23406.83367361135</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>215739.3565566406</v>
+        <v>215739.3565566405</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>126577.2685802888</v>
+        <v>126577.2685802895</v>
       </c>
       <c r="K3" t="n">
-        <v>18646.60035701983</v>
+        <v>18646.6003570191</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>180063.8714551677</v>
+        <v>180063.8714551675</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156089.0640777231</v>
+        <v>156089.0640777225</v>
       </c>
       <c r="C4" t="n">
         <v>139507.7493322929</v>
@@ -26426,40 +26426,40 @@
         <v>139507.7493322929</v>
       </c>
       <c r="E4" t="n">
-        <v>800.0602599433672</v>
+        <v>800.0602599433669</v>
       </c>
       <c r="F4" t="n">
-        <v>800.0602599433672</v>
+        <v>800.0602599433669</v>
       </c>
       <c r="G4" t="n">
-        <v>800.0602599433672</v>
+        <v>800.060259943367</v>
       </c>
       <c r="H4" t="n">
-        <v>800.0602599433674</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="I4" t="n">
-        <v>800.0602599433672</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="J4" t="n">
         <v>800.0602599433671</v>
       </c>
       <c r="K4" t="n">
-        <v>800.0602599433672</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="L4" t="n">
-        <v>800.0602599433672</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="M4" t="n">
-        <v>800.0602599433672</v>
+        <v>800.0602599433669</v>
       </c>
       <c r="N4" t="n">
-        <v>800.0602599433104</v>
+        <v>800.0602599434064</v>
       </c>
       <c r="O4" t="n">
-        <v>800.0602599433673</v>
+        <v>800.0602599433668</v>
       </c>
       <c r="P4" t="n">
-        <v>800.0602599433672</v>
+        <v>800.060259943367</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63041.22282216125</v>
+        <v>63041.22282216142</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26478,16 +26478,16 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="F5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="I5" t="n">
         <v>77750.06218842969</v>
@@ -26502,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="O5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="P5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>172065.5516411295</v>
+        <v>172065.5516411288</v>
       </c>
       <c r="C6" t="n">
-        <v>322959.7005672714</v>
+        <v>322959.7005672725</v>
       </c>
       <c r="D6" t="n">
         <v>346366.534240884</v>
       </c>
       <c r="E6" t="n">
-        <v>239639.4039755612</v>
+        <v>239588.3733133771</v>
       </c>
       <c r="F6" t="n">
-        <v>455378.7605322017</v>
+        <v>455327.7298700172</v>
       </c>
       <c r="G6" t="n">
-        <v>455378.7605322016</v>
+        <v>455327.7298700176</v>
       </c>
       <c r="H6" t="n">
-        <v>455378.7605322017</v>
+        <v>455327.7298700173</v>
       </c>
       <c r="I6" t="n">
-        <v>455378.7605322018</v>
+        <v>455327.7298700174</v>
       </c>
       <c r="J6" t="n">
-        <v>328801.4919519129</v>
+        <v>328750.4612897277</v>
       </c>
       <c r="K6" t="n">
-        <v>436732.1601751816</v>
+        <v>436681.129512998</v>
       </c>
       <c r="L6" t="n">
-        <v>455378.760532202</v>
+        <v>455327.7298700175</v>
       </c>
       <c r="M6" t="n">
-        <v>275314.8890770341</v>
+        <v>275263.85841485</v>
       </c>
       <c r="N6" t="n">
-        <v>455378.7605322018</v>
+        <v>455327.7298700174</v>
       </c>
       <c r="O6" t="n">
-        <v>455378.7605322013</v>
+        <v>455327.7298700172</v>
       </c>
       <c r="P6" t="n">
-        <v>455378.7605322016</v>
+        <v>455327.7298700177</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539679</v>
+        <v>483.7766911539707</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -26798,13 +26798,13 @@
         <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="F4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="G4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="H4" t="n">
         <v>1278.783917572857</v>
@@ -26822,16 +26822,16 @@
         <v>1278.783917572857</v>
       </c>
       <c r="M4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="N4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="O4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="P4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
     </row>
   </sheetData>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539679</v>
+        <v>483.7766911539707</v>
       </c>
       <c r="C4" t="n">
-        <v>72.45112196162626</v>
+        <v>72.45112196162341</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572622</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539679</v>
+        <v>483.7766911539707</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162626</v>
+        <v>72.45112196162341</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572618</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539679</v>
+        <v>483.7766911539707</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162626</v>
+        <v>72.45112196162341</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572622</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
         <v>400</v>
-      </c>
-      <c r="C2" t="n">
-        <v>190.768174828271</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>235.5984661731514</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27587,25 +27587,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>55.6810356349992</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>67.291859901202</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
         <v>400</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>371.3345117074836</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27630,10 +27630,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>302.6327158757587</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969948</v>
       </c>
       <c r="S7" t="n">
-        <v>168.1257425437763</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>153.4739695386585</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
         <v>400</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>53.82850041003985</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>115.5631513979316</v>
       </c>
     </row>
     <row r="9">
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28067,19 +28067,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>108.9108341743203</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>165.7641609568372</v>
       </c>
     </row>
     <row r="11">
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>8.668621376273222e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30474,7 +30474,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30656,7 +30656,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>-3.016490760880212e-12</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>483.7766911539679</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>483.7766911539707</v>
       </c>
       <c r="N2" t="n">
-        <v>121.048325775373</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>121.0483257753783</v>
       </c>
       <c r="P2" t="n">
-        <v>483.7766911539679</v>
+        <v>483.7766911539707</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
@@ -34774,25 +34774,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>483.7766911539679</v>
+        <v>25.75844738046685</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>116.1280969225081</v>
+        <v>483.7766911539707</v>
       </c>
       <c r="N3" t="n">
-        <v>483.7766911539679</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>483.7766911539707</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34801,7 +34801,7 @@
         <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34862,7 +34862,7 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
-        <v>358.2720417115361</v>
+        <v>71.39487192409831</v>
       </c>
       <c r="M4" t="n">
         <v>395.137166636617</v>
@@ -34874,7 +34874,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>6.657387709420811</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
         <v>128.2829598391535</v>
@@ -34941,25 +34941,25 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="N5" t="n">
-        <v>533.7539620806206</v>
+        <v>510.5455990486534</v>
       </c>
       <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,22 +35011,22 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>158.2737632597931</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>556.2278131155941</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -35035,10 +35035,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35111,7 +35111,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P7" t="n">
-        <v>293.5345574968705</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
         <v>128.2829598391535</v>
@@ -35181,7 +35181,7 @@
         <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="N8" t="n">
         <v>556.2278131155941</v>
@@ -35190,13 +35190,13 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>167.4878420635545</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>519.9318045371609</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>67.90411371775774</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="O9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35418,22 +35418,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>886.8993927061638</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013684</v>
       </c>
       <c r="Q11" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>83.23994392538586</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>671.3043172755312</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35655,22 +35655,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>1014.430405473796</v>
+        <v>19.53098502454721</v>
       </c>
       <c r="N14" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>200.7306752811506</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35734,7 +35734,7 @@
         <v>845.2513212958648</v>
       </c>
       <c r="M15" t="n">
-        <v>258.2738438980865</v>
+        <v>505.3502047201137</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35743,10 +35743,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35898,16 +35898,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
-        <v>319.4744478891323</v>
+        <v>455.4718870526073</v>
       </c>
       <c r="P17" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35971,22 +35971,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1020.677377229605</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>444.6753049152899</v>
       </c>
       <c r="R18" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36132,16 +36132,16 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N20" t="n">
-        <v>333.1613907719469</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>853.6814647988001</v>
+        <v>726.150452031167</v>
       </c>
       <c r="P20" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36208,19 +36208,19 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>369.3493785286319</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>544.3217006390075</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
         <v>82.84778796434657</v>
@@ -36296,7 +36296,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P22" t="n">
-        <v>293.5345574968734</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q22" t="n">
         <v>128.2829598391535</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36366,7 +36366,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>480.2233885641281</v>
       </c>
       <c r="N23" t="n">
         <v>986.1121802895968</v>
@@ -36375,13 +36375,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,22 +36445,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>719.1172132785132</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>544.3217006390075</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>554.7947677291143</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
         <v>939.015199615431</v>
@@ -36609,7 +36609,7 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
-        <v>853.6814647988001</v>
+        <v>319.4744478891323</v>
       </c>
       <c r="P26" t="n">
         <v>715.433615311038</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36682,22 +36682,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>257.8052598432935</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>544.3217006390075</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
-        <v>722.7356646217162</v>
+        <v>188.528647712048</v>
       </c>
       <c r="L29" t="n">
-        <v>191.6381265752678</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
         <v>1014.430405473796</v>
@@ -36852,10 +36852,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>377.7345989569216</v>
       </c>
       <c r="N30" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -37077,16 +37077,16 @@
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>19.53098502454905</v>
       </c>
       <c r="N32" t="n">
-        <v>706.646375151388</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
         <v>460.6924035395789</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37159,19 +37159,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>928.4912652212494</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>898.4659373853249</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37314,7 +37314,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>267.053332433633</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N35" t="n">
         <v>986.1121802895968</v>
@@ -37323,10 +37323,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>715.433615311038</v>
+        <v>62.4828257933862</v>
       </c>
       <c r="Q35" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>118.7437726079824</v>
@@ -37384,7 +37384,7 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37393,22 +37393,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>719.1172132785132</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37472,7 +37472,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M37" t="n">
-        <v>395.1371666366198</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N37" t="n">
         <v>381.3045564404402</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37551,7 +37551,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>267.053332433633</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
         <v>986.1121802895968</v>
@@ -37560,10 +37560,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>715.433615311038</v>
+        <v>62.4828257933862</v>
       </c>
       <c r="Q38" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>118.7437726079824</v>
@@ -37630,22 +37630,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>719.1172132785132</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>544.3217006390075</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37785,7 +37785,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>1014.430405473796</v>
@@ -37794,13 +37794,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>455.4718870526091</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>286.0644100977787</v>
       </c>
       <c r="R41" t="n">
         <v>118.7437726079824</v>
@@ -37858,13 +37858,13 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
-        <v>754.1521052398779</v>
+        <v>50.07807450423802</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37873,13 +37873,13 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37952,7 +37952,7 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O43" t="n">
-        <v>359.0183117977405</v>
+        <v>359.0183117977375</v>
       </c>
       <c r="P43" t="n">
         <v>293.5345574968697</v>
@@ -38019,7 +38019,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>69.78487510406583</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
         <v>939.015199615431</v>
@@ -38031,13 +38031,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>715.433615311038</v>
+        <v>455.4718870526073</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
         <v>118.7437726079824</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>185.2155418451189</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38110,7 +38110,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
